--- a/Assets/Tables/enemy.xlsx
+++ b/Assets/Tables/enemy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\GitLab\yh-project\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43E29AE-835F-4EEF-BDB6-4DCDBA1631E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDBBD8D-5900-40F3-9153-A9116E107CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monster" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="-id 配置说明" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="ref_loot">'-loot_list辅助配置表'!$T$13</definedName>
+    <definedName name="ref_loot">'-id 配置说明'!$H$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="205">
   <si>
     <t>id</t>
   </si>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>地宫甲虫</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>dungeon_beatle</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -369,15 +365,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>地宫跳虫</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>地宫洞穴人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>地宫跳虫骑手</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -472,10 +460,6 @@
   </si>
   <si>
     <t>201101;201104</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>地宫蝙蝠骑手</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -739,10 +723,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>基础伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">预制体
 </t>
@@ -759,30 +739,6 @@
       <t>address</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>地宫蝙蝠</t>
-  </si>
-  <si>
-    <t>地宫甲虫</t>
-  </si>
-  <si>
-    <t>地宫跳虫</t>
-  </si>
-  <si>
-    <t>地宫洞穴人</t>
-  </si>
-  <si>
-    <t>地宫跳虫骑手</t>
-  </si>
-  <si>
-    <t>地宫蝙蝠骑手</t>
-  </si>
-  <si>
-    <t>地宫捕奴车</t>
-  </si>
-  <si>
-    <t>地宫装甲车</t>
   </si>
   <si>
     <t>Monster</t>
@@ -898,12 +854,134 @@
   <si>
     <t>烈性炸药</t>
   </si>
+  <si>
+    <t>纤维</t>
+  </si>
+  <si>
+    <t>胶</t>
+  </si>
+  <si>
+    <t>绑线</t>
+  </si>
+  <si>
+    <t>Loot 5</t>
+  </si>
+  <si>
+    <t>Loot 6</t>
+  </si>
+  <si>
+    <t>Odds 5</t>
+  </si>
+  <si>
+    <t>Odds 6</t>
+  </si>
+  <si>
+    <t>generate_count_area</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector2?</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴人流浪者</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1
+地区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地宫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2
+名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳虫骑手</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠骑手</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自爆甲虫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳虫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dungeon_caveman_wanderer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次生成数
+min~max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnd
+min</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnd
+max</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴人暴徒</t>
+  </si>
+  <si>
+    <t>dungeon_caveman_mob</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>该表格在 【id配置说明】页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">基础伤害
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>近战用</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴人纵火者</t>
+  </si>
+  <si>
+    <t>dungeon_caveman_arsonist</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT_dungeon_caveman_wanderer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1083,8 +1161,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1117,13 +1203,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,7 +1235,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1246,9 +1338,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,7 +1350,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1273,6 +1362,20 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1316,9 +1419,72 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9276</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>37368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA10F5A-94CC-624B-7C1A-9DBE59BE478C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17116425" y="695325"/>
+          <a:ext cx="1990476" cy="5857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BCA72E9-F105-436E-ABB5-19C6CDBE9799}" name="表1" displayName="表1" ref="T12:U39" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="T12:U39" xr:uid="{7BCA72E9-F105-436E-ABB5-19C6CDBE9799}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BCA72E9-F105-436E-ABB5-19C6CDBE9799}" name="table_loot" displayName="table_loot" ref="H6:I36" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="H6:I36" xr:uid="{7BCA72E9-F105-436E-ABB5-19C6CDBE9799}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0A80D120-8272-4593-BE29-B84E8B886994}" name="id" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{2319A8A4-FA59-4468-9013-B363C3B0E182}" name="name" dataDxfId="1"/>
@@ -1585,39 +1751,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB22D4E-177C-4FB4-ACF4-6C3B8984BA30}">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.75" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="13" customWidth="1"/>
-    <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="20" width="17.25" style="21" customWidth="1"/>
-    <col min="21" max="21" width="24" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.25" style="13" customWidth="1"/>
-    <col min="23" max="23" width="33.125" style="13" customWidth="1"/>
-    <col min="24" max="27" width="10.75" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="23" customWidth="1"/>
+    <col min="18" max="21" width="17.25" style="21" customWidth="1"/>
+    <col min="22" max="22" width="24" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.25" style="13" customWidth="1"/>
+    <col min="24" max="24" width="33.125" style="13" customWidth="1"/>
+    <col min="25" max="28" width="10.75" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1625,60 +1792,61 @@
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="D1" s="3"/>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="18"/>
+        <v>140</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="R1" s="18"/>
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
       <c r="U1" s="18"/>
-      <c r="V1" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="V1" s="18"/>
       <c r="W1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X1" s="18"/>
+        <v>79</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="Y1" s="18"/>
       <c r="Z1" s="18"/>
       <c r="AA1" s="18"/>
-    </row>
-    <row r="2" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB1" s="18"/>
+    </row>
+    <row r="2" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1686,139 +1854,143 @@
         <v>3</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="N2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="19"/>
+        <v>139</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
-      <c r="V2" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="V2" s="19"/>
       <c r="W2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="X2" s="19"/>
+        <v>81</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="Y2" s="19"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="19"/>
-    </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="AB2" s="19"/>
+    </row>
+    <row r="3" spans="1:28" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="12"/>
+      <c r="C3" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>189</v>
+      </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="H3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>150</v>
-      </c>
       <c r="J3" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="K3" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>126</v>
-      </c>
       <c r="M3" s="12" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="N3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="38" t="s">
-        <v>172</v>
-      </c>
       <c r="P3" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q3" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>85</v>
-      </c>
       <c r="T3" s="20" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>91</v>
+        <v>136</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="X3" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="Y3" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Z3" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AA3" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>201101</v>
       </c>
@@ -1827,137 +1999,143 @@
         <v>enemy_201101</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="36"/>
       <c r="E4" s="36"/>
-      <c r="F4" s="13">
+      <c r="F4" s="36"/>
+      <c r="G4" s="13">
         <v>25</v>
       </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
       <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
         <v>2.4</v>
       </c>
-      <c r="I4" s="13">
+      <c r="J4" s="13">
         <v>6</v>
       </c>
-      <c r="J4" s="15" t="str">
-        <f>_xlfn.TEXTJOIN("_",1,"monster",$A4,$K4)</f>
+      <c r="K4" s="15" t="str">
+        <f>_xlfn.TEXTJOIN("_",1,"monster",$A4,$L4)</f>
         <v>monster_201101_dungeon_bat</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="15" t="str">
-        <f t="shared" ref="L4:L9" si="0">_xlfn.TEXTJOIN("_",1,"BT",$K4)</f>
+      <c r="M4" s="15" t="str">
+        <f t="shared" ref="M4:M10" si="0">_xlfn.TEXTJOIN("_",1,"BT",$L4)</f>
         <v>BT_dungeon_bat</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="13">
+      <c r="N4" s="26"/>
+      <c r="O4" s="13">
         <v>0.15</v>
       </c>
-      <c r="O4" s="33" t="str">
+      <c r="P4" s="33" t="str">
         <f>VLOOKUP(A4,'-loot_list辅助配置表'!A:D,4,0)</f>
-        <v>6001=0.01;6011=0.03</v>
-      </c>
-      <c r="P4" s="17" t="str">
-        <f>_xlfn.TEXTJOIN(";",1,Q4:U4)</f>
+        <v>6001=0.01;6014=0.01;6051=0.01</v>
+      </c>
+      <c r="Q4" s="17" t="str">
+        <f>_xlfn.TEXTJOIN(";",1,R4:V4)</f>
         <v>vfx_monster_die_1;vfx_monster_die_2;vfx_monster_die_3;vfx_monster_die_4</v>
       </c>
-      <c r="Q4" s="21" t="s">
-        <v>136</v>
-      </c>
       <c r="R4" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="S4" s="21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="T4" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="V4" s="26">
-        <v>0</v>
-      </c>
-      <c r="W4" s="33" t="str" cm="1">
-        <f t="array" ref="W4">_xlfn.TEXTJOIN(";",1,IF(X4:Y4&lt;&gt;"",X4:Y4&amp;"="&amp;Z4:AA4,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="W4" s="26">
+        <v>0</v>
+      </c>
+      <c r="X4" s="33" t="str" cm="1">
+        <f t="array" ref="X4">_xlfn.TEXTJOIN(";",1,IF(Y4:Z4&lt;&gt;"",Y4:Z4&amp;"="&amp;AA4:AB4,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>201102</v>
       </c>
       <c r="B5" s="13" t="str">
-        <f t="shared" ref="B5:B12" si="1">_xlfn.TEXTJOIN("_",1,"enemy",$A5)</f>
+        <f t="shared" ref="B5:B15" si="1">_xlfn.TEXTJOIN("_",1,"enemy",$A5)</f>
         <v>enemy_201102</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="13">
+        <v>5</v>
+      </c>
+      <c r="H5" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="13">
+        <v>10</v>
+      </c>
+      <c r="K5" s="15" t="str">
+        <f t="shared" ref="K5:K12" si="2">_xlfn.TEXTJOIN("_",1,"monster",$A5,$L5)</f>
+        <v>monster_201102_dungeon_beatle</v>
+      </c>
+      <c r="L5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="13">
-        <v>5</v>
-      </c>
-      <c r="G5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="I5" s="13">
-        <v>10</v>
-      </c>
-      <c r="J5" s="15" t="str">
-        <f t="shared" ref="J5:J9" si="2">_xlfn.TEXTJOIN("_",1,"monster",$A5,$K5)</f>
-        <v>monster_201102_dungeon_beatle</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="15" t="str">
+      <c r="M5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>BT_dungeon_beatle</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="13">
+      <c r="N5" s="26"/>
+      <c r="O5" s="13">
         <v>0.1</v>
       </c>
-      <c r="O5" s="33" t="str">
+      <c r="P5" s="33" t="str">
         <f>VLOOKUP(A5,'-loot_list辅助配置表'!A:D,4,0)</f>
-        <v>6001=0.005</v>
-      </c>
-      <c r="P5" s="17" t="str">
-        <f>_xlfn.TEXTJOIN(";",1,Q5:U5)</f>
+        <v>6001=0.005;6023=0.05;6014=0.01</v>
+      </c>
+      <c r="Q5" s="17" t="str">
+        <f>_xlfn.TEXTJOIN(";",1,R5:V5)</f>
         <v>vfx_monster_die_1;vfx_monster_die_2;vfx_monster_die_3;vfx_monster_die_4;vfx_monster_die_explosion</v>
       </c>
-      <c r="Q5" s="21" t="s">
-        <v>136</v>
-      </c>
       <c r="R5" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="S5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="V5" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="T5" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="U5" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="V5" s="26">
-        <v>0</v>
-      </c>
-      <c r="W5" s="33" t="str" cm="1">
-        <f t="array" ref="W5">_xlfn.TEXTJOIN(";",1,IF(X5:Y5&lt;&gt;"",X5:Y5&amp;"="&amp;Z5:AA5,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="W5" s="26">
+        <v>0</v>
+      </c>
+      <c r="X5" s="33" t="str" cm="1">
+        <f t="array" ref="X5">_xlfn.TEXTJOIN(";",1,IF(Y5:Z5&lt;&gt;"",Y5:Z5&amp;"="&amp;AA5:AB5,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>201103</v>
       </c>
@@ -1966,66 +2144,69 @@
         <v>enemy_201103</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="36"/>
+        <v>188</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="E6" s="36"/>
-      <c r="F6" s="13">
+      <c r="F6" s="36"/>
+      <c r="G6" s="13">
         <v>40</v>
       </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
       <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
         <v>7.5</v>
       </c>
-      <c r="I6" s="13">
+      <c r="J6" s="13">
         <v>6</v>
       </c>
-      <c r="J6" s="15" t="str">
+      <c r="K6" s="15" t="str">
         <f t="shared" si="2"/>
         <v>monster_201103_dungeon_springtail</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="15" t="str">
+      <c r="L6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>BT_dungeon_springtail</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="13">
+      <c r="N6" s="26"/>
+      <c r="O6" s="13">
         <v>0.15</v>
       </c>
-      <c r="O6" s="33" t="str">
+      <c r="P6" s="33" t="str">
         <f>VLOOKUP(A6,'-loot_list辅助配置表'!A:D,4,0)</f>
-        <v>6001=0.01</v>
-      </c>
-      <c r="P6" s="17" t="str">
-        <f t="shared" ref="P6:P12" si="3">_xlfn.TEXTJOIN(";",1,Q6:U6)</f>
+        <v>6001=0.01;6014=0.05;6011=0.02;6010=0.12</v>
+      </c>
+      <c r="Q6" s="17" t="str">
+        <f t="shared" ref="Q6:Q15" si="3">_xlfn.TEXTJOIN(";",1,R6:V6)</f>
         <v>vfx_monster_die_1;vfx_monster_die_2;vfx_monster_die_3;vfx_monster_die_4</v>
       </c>
-      <c r="Q6" s="21" t="s">
-        <v>136</v>
-      </c>
       <c r="R6" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="V6" s="26">
-        <v>0</v>
-      </c>
-      <c r="W6" s="33" t="str" cm="1">
-        <f t="array" ref="W6">_xlfn.TEXTJOIN(";",1,IF(X6:Y6&lt;&gt;"",X6:Y6&amp;"="&amp;Z6:AA6,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="W6" s="26">
+        <v>0</v>
+      </c>
+      <c r="X6" s="33" t="str" cm="1">
+        <f t="array" ref="X6">_xlfn.TEXTJOIN(";",1,IF(Y6:Z6&lt;&gt;"",Y6:Z6&amp;"="&amp;AA6:AB6,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>201104</v>
       </c>
@@ -2034,69 +2215,72 @@
         <v>enemy_201104</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="36"/>
+        <v>188</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="E7" s="36"/>
-      <c r="F7" s="13">
-        <v>75</v>
-      </c>
+      <c r="F7" s="36"/>
       <c r="G7" s="13">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13">
         <v>20</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>7</v>
       </c>
-      <c r="J7" s="15" t="str">
+      <c r="K7" s="15" t="str">
         <f t="shared" si="2"/>
         <v>monster_201104_dungeon_caveman</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="15" t="str">
+      <c r="L7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>BT_dungeon_caveman</v>
       </c>
-      <c r="M7" s="35">
-        <f>A7</f>
+      <c r="N7" s="35">
+        <f t="shared" ref="N7:N12" si="4">A7</f>
         <v>201104</v>
       </c>
-      <c r="N7" s="13">
+      <c r="O7" s="13">
         <v>0.15</v>
       </c>
-      <c r="O7" s="33" t="str">
+      <c r="P7" s="33" t="str">
         <f>VLOOKUP(A7,'-loot_list辅助配置表'!A:D,4,0)</f>
-        <v>6000=0.1;6001=0.05</v>
-      </c>
-      <c r="P7" s="17" t="str">
+        <v>6000=0.2;6001=0.03;6030=0.02;6031=0.02;6010=0.02;6050=0.01</v>
+      </c>
+      <c r="Q7" s="17" t="str">
         <f t="shared" si="3"/>
         <v>vfx_monster_die_1;vfx_monster_die_2;vfx_monster_die_3;vfx_monster_die_4</v>
       </c>
-      <c r="Q7" s="21" t="s">
-        <v>136</v>
-      </c>
       <c r="R7" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="V7" s="26">
-        <v>0</v>
-      </c>
-      <c r="W7" s="33" t="str" cm="1">
-        <f t="array" ref="W7">_xlfn.TEXTJOIN(";",1,IF(X7:Y7&lt;&gt;"",X7:Y7&amp;"="&amp;Z7:AA7,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="W7" s="26">
+        <v>0</v>
+      </c>
+      <c r="X7" s="33" t="str" cm="1">
+        <f t="array" ref="X7">_xlfn.TEXTJOIN(";",1,IF(Y7:Z7&lt;&gt;"",Y7:Z7&amp;"="&amp;AA7:AB7,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>201105</v>
       </c>
@@ -2105,82 +2289,85 @@
         <v>enemy_201105</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="36"/>
+        <v>188</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>190</v>
+      </c>
       <c r="E8" s="36"/>
-      <c r="F8" s="13">
+      <c r="F8" s="36"/>
+      <c r="G8" s="13">
         <v>50</v>
       </c>
-      <c r="G8" s="13">
+      <c r="H8" s="13">
         <v>2</v>
       </c>
-      <c r="H8" s="13">
+      <c r="I8" s="13">
         <v>27.5</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="15" t="str">
+      <c r="J8" s="26"/>
+      <c r="K8" s="15" t="str">
         <f t="shared" si="2"/>
         <v>monster_201105_dungeon_springtail_rider</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="15" t="str">
+      <c r="L8" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>BT_dungeon_springtail_rider</v>
       </c>
-      <c r="M8" s="35">
-        <f>A8</f>
+      <c r="N8" s="35">
+        <f t="shared" si="4"/>
         <v>201105</v>
       </c>
-      <c r="N8" s="13">
+      <c r="O8" s="13">
         <v>0.25</v>
       </c>
-      <c r="O8" s="33" t="str">
+      <c r="P8" s="33" t="str">
         <f>VLOOKUP(A8,'-loot_list辅助配置表'!A:D,4,0)</f>
         <v/>
       </c>
-      <c r="P8" s="17" t="str">
-        <f>_xlfn.TEXTJOIN(";",1,Q8:U8)</f>
+      <c r="Q8" s="17" t="str">
+        <f>_xlfn.TEXTJOIN(";",1,R8:V8)</f>
         <v>vfx_monster_die_1;vfx_monster_die_2;vfx_monster_die_3;vfx_monster_die_4;null</v>
       </c>
-      <c r="Q8" s="21" t="s">
-        <v>136</v>
-      </c>
       <c r="R8" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="V8" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="W8" s="33" t="str" cm="1">
-        <f t="array" ref="W8">_xlfn.TEXTJOIN(";",1,IF(X8:Y8&lt;&gt;"",X8:Y8&amp;"="&amp;Z8:AA8,""))</f>
+        <v>135</v>
+      </c>
+      <c r="V8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="W8" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8" s="33" t="str" cm="1">
+        <f t="array" ref="X8">_xlfn.TEXTJOIN(";",1,IF(Y8:Z8&lt;&gt;"",Y8:Z8&amp;"="&amp;AA8:AB8,""))</f>
         <v>Mount=201103;Rider=201104</v>
       </c>
-      <c r="X8" s="21" t="s">
-        <v>96</v>
-      </c>
       <c r="Y8" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z8" s="21">
+        <v>92</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA8" s="21">
         <v>201103</v>
       </c>
-      <c r="AA8" s="21">
+      <c r="AB8" s="21">
         <v>201104</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>201106</v>
       </c>
@@ -2189,176 +2376,399 @@
         <v>enemy_201106</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="36"/>
+        <v>188</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>191</v>
+      </c>
       <c r="E9" s="36"/>
-      <c r="F9" s="13">
+      <c r="F9" s="36"/>
+      <c r="G9" s="13">
         <v>35</v>
       </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
       <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13">
         <v>22.4</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="15" t="str">
+      <c r="J9" s="26"/>
+      <c r="K9" s="15" t="str">
         <f t="shared" si="2"/>
         <v>monster_201106_dungeon_bat_rider</v>
       </c>
-      <c r="K9" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="15" t="str">
+      <c r="L9" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>BT_dungeon_bat_rider</v>
       </c>
-      <c r="M9" s="35">
-        <f>A9</f>
+      <c r="N9" s="35">
+        <f t="shared" si="4"/>
         <v>201106</v>
       </c>
-      <c r="N9" s="13">
+      <c r="O9" s="13">
         <v>0.25</v>
       </c>
-      <c r="O9" s="33" t="str">
+      <c r="P9" s="33" t="str">
         <f>VLOOKUP(A9,'-loot_list辅助配置表'!A:D,4,0)</f>
         <v/>
       </c>
-      <c r="P9" s="17" t="str">
-        <f>_xlfn.TEXTJOIN(";",1,Q9:U9)</f>
+      <c r="Q9" s="17" t="str">
+        <f>_xlfn.TEXTJOIN(";",1,R9:V9)</f>
         <v>vfx_monster_die_1;vfx_monster_die_2;vfx_monster_die_3;vfx_monster_die_4;null</v>
       </c>
-      <c r="Q9" s="21" t="s">
-        <v>136</v>
-      </c>
       <c r="R9" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="U9" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="W9" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="V9" s="33" t="s">
+      <c r="X9" s="33" t="str" cm="1">
+        <f t="array" ref="X9">_xlfn.TEXTJOIN(";",1,IF(Y9:Z9&lt;&gt;"",Y9:Z9&amp;"="&amp;AA9:AB9,""))</f>
+        <v>Mount=201101;Rider=201104</v>
+      </c>
+      <c r="Y9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="W9" s="33" t="str" cm="1">
-        <f t="array" ref="W9">_xlfn.TEXTJOIN(";",1,IF(X9:Y9&lt;&gt;"",X9:Y9&amp;"="&amp;Z9:AA9,""))</f>
-        <v>Mount=201101;Rider=201104</v>
-      </c>
-      <c r="X9" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y9" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z9" s="21">
+      <c r="AA9" s="21">
         <v>201101</v>
       </c>
-      <c r="AA9" s="21">
+      <c r="AB9" s="21">
         <v>201104</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O10" s="33"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>201107</v>
+      </c>
+      <c r="B10" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>enemy_201107</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="13">
+        <v>30</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>20</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>monster_201107_dungeon_caveman_wanderer</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="M10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>BT_dungeon_caveman_wanderer</v>
+      </c>
+      <c r="N10" s="35">
+        <f t="shared" si="4"/>
+        <v>201107</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="P10" s="33" t="str">
+        <f>VLOOKUP(A10,'-loot_list辅助配置表'!A:D,4,0)</f>
+        <v>6000=0.03;6001=0.03;6022=0.1;6010=0.01;6050=0.002</v>
+      </c>
+      <c r="Q10" s="17" t="str">
+        <f t="shared" ref="Q10" si="5">_xlfn.TEXTJOIN(";",1,R10:V10)</f>
+        <v>vfx_monster_die_1;vfx_monster_die_2;vfx_monster_die_3;vfx_monster_die_4</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="T10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="W10" s="26">
+        <v>0</v>
+      </c>
+      <c r="X10" s="33" t="str" cm="1">
+        <f t="array" ref="X10">_xlfn.TEXTJOIN(";",1,IF(Y10:Z10&lt;&gt;"",Y10:Z10&amp;"="&amp;AA10:AB10,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
-        <v>211101</v>
+        <v>201108</v>
       </c>
       <c r="B11" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>enemy_211101</v>
+        <v>enemy_201108</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="33">
-        <f>A11</f>
-        <v>211101</v>
-      </c>
-      <c r="F11" s="13">
-        <v>200</v>
-      </c>
-      <c r="G11" s="36"/>
+        <v>188</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="13">
+        <v>35</v>
+      </c>
       <c r="H11" s="13">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="I11" s="13">
         <v>20</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="13">
+      <c r="J11" s="26"/>
+      <c r="K11" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>monster_201108_dungeon_caveman_arsonist</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="N11" s="35">
+        <f t="shared" si="4"/>
+        <v>201108</v>
+      </c>
+      <c r="O11" s="13">
         <v>0.15</v>
       </c>
-      <c r="O11" s="33" t="str">
+      <c r="P11" s="33" t="str">
         <f>VLOOKUP(A11,'-loot_list辅助配置表'!A:D,4,0)</f>
+        <v>6000=0.065;6001=0.03;6055=0.05;6010=0.01;6050=0.005</v>
+      </c>
+      <c r="Q11" s="17" t="str">
+        <f t="shared" ref="Q11" si="6">_xlfn.TEXTJOIN(";",1,R11:V11)</f>
+        <v>vfx_monster_die_1;vfx_monster_die_2;vfx_monster_die_3;vfx_monster_die_4</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="T11" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="W11" s="26">
+        <v>0</v>
+      </c>
+      <c r="X11" s="33" t="str" cm="1">
+        <f t="array" ref="X11">_xlfn.TEXTJOIN(";",1,IF(Y11:Z11&lt;&gt;"",Y11:Z11&amp;"="&amp;AA11:AB11,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>201109</v>
+      </c>
+      <c r="B12" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>enemy_201109</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="13">
+        <v>40</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>20</v>
+      </c>
+      <c r="J12" s="26"/>
+      <c r="K12" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>monster_201109_dungeon_caveman_mob</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="M12" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="N12" s="35">
+        <f t="shared" si="4"/>
+        <v>201109</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="P12" s="33" t="str">
+        <f>VLOOKUP(A12,'-loot_list辅助配置表'!A:D,4,0)</f>
+        <v>6000=0.1;6001=0.03;6023=0.1;6010=0.01;6050=0.005</v>
+      </c>
+      <c r="Q12" s="17" t="str">
+        <f t="shared" ref="Q12" si="7">_xlfn.TEXTJOIN(";",1,R12:V12)</f>
+        <v>vfx_monster_die_1;vfx_monster_die_2;vfx_monster_die_3;vfx_monster_die_4</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="W12" s="26">
+        <v>0</v>
+      </c>
+      <c r="X12" s="33" t="str" cm="1">
+        <f t="array" ref="X12">_xlfn.TEXTJOIN(";",1,IF(Y12:Z12&lt;&gt;"",Y12:Z12&amp;"="&amp;AA12:AB12,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="P13" s="33"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>211101</v>
+      </c>
+      <c r="B14" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>enemy_211101</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="33">
+        <f>A14</f>
+        <v>211101</v>
+      </c>
+      <c r="G14" s="13">
+        <v>200</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="13">
+        <v>1200</v>
+      </c>
+      <c r="J14" s="13">
+        <v>20</v>
+      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="P14" s="33" t="str">
+        <f>VLOOKUP(A14,'-loot_list辅助配置表'!A:D,4,0)</f>
         <v>6000=0.75;6001=0.4;6053=0.8;6020=1</v>
       </c>
-      <c r="P11" s="17" t="str">
+      <c r="Q14" s="17" t="str">
         <f t="shared" si="3"/>
         <v>null</v>
       </c>
-      <c r="Q11" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="R14" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
         <v>211102</v>
       </c>
-      <c r="B12" s="13" t="str">
+      <c r="B15" s="13" t="str">
         <f t="shared" si="1"/>
         <v>enemy_211102</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="33">
-        <f>A12</f>
+      <c r="C15" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="33">
+        <f>A15</f>
         <v>211102</v>
       </c>
-      <c r="F12" s="13">
+      <c r="G15" s="13">
         <v>520</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="13">
+      <c r="H15" s="36"/>
+      <c r="I15" s="13">
         <v>5000</v>
       </c>
-      <c r="I12" s="13">
+      <c r="J15" s="13">
         <v>20</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="13">
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="13">
         <v>0.15</v>
       </c>
-      <c r="O12" s="33" t="str">
-        <f>VLOOKUP(A12,'-loot_list辅助配置表'!A:D,4,0)</f>
+      <c r="P15" s="33" t="str">
+        <f>VLOOKUP(A15,'-loot_list辅助配置表'!A:D,4,0)</f>
         <v>6000=0.6;6001=0.8;6053=0.95;6031=1</v>
       </c>
-      <c r="P12" s="17" t="str">
+      <c r="Q15" s="17" t="str">
         <f t="shared" si="3"/>
         <v>null</v>
       </c>
-      <c r="Q12" s="21" t="s">
-        <v>90</v>
+      <c r="R15" s="21" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2373,510 +2783,560 @@
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="39"/>
-    <col min="2" max="2" width="13.625" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.875" style="43" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="42" customWidth="1"/>
-    <col min="5" max="5" width="1.875" style="43" customWidth="1"/>
-    <col min="6" max="13" width="9" style="39"/>
-    <col min="14" max="14" width="1.875" style="43" customWidth="1"/>
-    <col min="15" max="15" width="35.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="9" style="38"/>
+    <col min="2" max="2" width="13.625" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="41" customWidth="1"/>
+    <col min="5" max="5" width="1.875" style="42" customWidth="1"/>
+    <col min="6" max="14" width="9" style="38"/>
+    <col min="15" max="15" width="9" style="38" customWidth="1"/>
+    <col min="16" max="16" width="9" style="38"/>
+    <col min="17" max="17" width="9" style="38" customWidth="1"/>
+    <col min="18" max="18" width="1.875" style="42" customWidth="1"/>
+    <col min="19" max="19" width="70.875" style="41" customWidth="1"/>
+    <col min="20" max="20" width="7.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="39">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="S1" s="43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="38">
         <v>201101</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="42" t="str" cm="1">
-        <f t="array" ref="D2">_xlfn.LET(_xlpm.arr_loot,F2:I2,
-_xlpm.arr_odds,J2:M2,
-_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;J2:M2,"")))</f>
-        <v>6001=0.01;6011=0.03</v>
-      </c>
-      <c r="F2" s="39">
+      <c r="B2" s="44" t="str">
+        <f>VLOOKUP(A2,monster!A:D,4,0)</f>
+        <v>地宫蝙蝠</v>
+      </c>
+      <c r="D2" s="41" t="str" cm="1">
+        <f t="array" ref="D2">_xlfn.LET(_xlpm.arr_loot,F2:K2,
+_xlpm.arr_odds,L2:Q2,
+_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;_xlpm.arr_odds,"")))</f>
+        <v>6001=0.01;6014=0.01;6051=0.01</v>
+      </c>
+      <c r="F2" s="38">
         <v>6001</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="38">
+        <v>6014</v>
+      </c>
+      <c r="H2" s="38">
+        <v>6051</v>
+      </c>
+      <c r="L2" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="M2" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="N2" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="S2" s="45" t="str" cm="1">
+        <f t="array" ref="S2">_xlfn.LET(_xlpm.arr_loot,F2:K2,
+_xlpm.arr_odds,L2:Q2,
+_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,table_loot[#All],2,0)&amp;":"&amp;TEXT(_xlpm.arr_odds,"0.0%"),"")))</f>
+        <v>灵魂:1.0%; 胶:1.0%; 硬化兽皮:1.0%</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="38">
+        <v>201102</v>
+      </c>
+      <c r="B3" s="44" t="str">
+        <f>VLOOKUP(A3,monster!A:D,4,0)</f>
+        <v>自爆甲虫</v>
+      </c>
+      <c r="D3" s="41" t="str" cm="1">
+        <f t="array" ref="D3">_xlfn.LET(_xlpm.arr_loot,F3:K3,
+_xlpm.arr_odds,L3:Q3,
+_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;_xlpm.arr_odds,"")))</f>
+        <v>6001=0.005;6023=0.05;6014=0.01</v>
+      </c>
+      <c r="F3" s="38">
+        <v>6001</v>
+      </c>
+      <c r="G3" s="38">
+        <v>6023</v>
+      </c>
+      <c r="H3" s="38">
+        <v>6014</v>
+      </c>
+      <c r="L3" s="38">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M3" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="N3" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="S3" s="45" t="str" cm="1">
+        <f t="array" ref="S3">_xlfn.LET(_xlpm.arr_loot,F3:K3,
+_xlpm.arr_odds,L3:Q3,
+_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,table_loot[#All],2,0)&amp;":"&amp;TEXT(_xlpm.arr_odds,"0.0%"),"")))</f>
+        <v>灵魂:0.5%; 易燃粉末:5.0%; 胶:1.0%</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="38">
+        <v>201103</v>
+      </c>
+      <c r="B4" s="44" t="str">
+        <f>VLOOKUP(A4,monster!A:D,4,0)</f>
+        <v>跳虫</v>
+      </c>
+      <c r="D4" s="41" t="str" cm="1">
+        <f t="array" ref="D4">_xlfn.LET(_xlpm.arr_loot,F4:K4,
+_xlpm.arr_odds,L4:Q4,
+_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;_xlpm.arr_odds,"")))</f>
+        <v>6001=0.01;6014=0.05;6011=0.02;6010=0.12</v>
+      </c>
+      <c r="F4" s="38">
+        <v>6001</v>
+      </c>
+      <c r="G4" s="38">
+        <v>6014</v>
+      </c>
+      <c r="H4" s="38">
         <v>6011</v>
       </c>
-      <c r="J2" s="39">
+      <c r="I4" s="38">
+        <v>6010</v>
+      </c>
+      <c r="L4" s="38">
         <v>0.01</v>
       </c>
-      <c r="K2" s="39">
+      <c r="M4" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="N4" s="38">
+        <v>0.02</v>
+      </c>
+      <c r="O4" s="38">
+        <v>0.12</v>
+      </c>
+      <c r="S4" s="45" t="str" cm="1">
+        <f t="array" ref="S4">_xlfn.LET(_xlpm.arr_loot,F4:K4,
+_xlpm.arr_odds,L4:Q4,
+_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,table_loot[#All],2,0)&amp;":"&amp;TEXT(_xlpm.arr_odds,"0.0%"),"")))</f>
+        <v>灵魂:1.0%; 胶:5.0%; 柔软皮毛:2.0%; 生肉:12.0%</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="38">
+        <v>201104</v>
+      </c>
+      <c r="B5" s="44" t="str">
+        <f>VLOOKUP(A5,monster!A:D,4,0)</f>
+        <v>地宫洞穴人</v>
+      </c>
+      <c r="D5" s="41" t="str" cm="1">
+        <f t="array" ref="D5">_xlfn.LET(_xlpm.arr_loot,F5:K5,
+_xlpm.arr_odds,L5:Q5,
+_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;_xlpm.arr_odds,"")))</f>
+        <v>6000=0.2;6001=0.03;6030=0.02;6031=0.02;6010=0.02;6050=0.01</v>
+      </c>
+      <c r="F5" s="38">
+        <v>6000</v>
+      </c>
+      <c r="G5" s="38">
+        <v>6001</v>
+      </c>
+      <c r="H5" s="38">
+        <v>6030</v>
+      </c>
+      <c r="I5" s="38">
+        <v>6031</v>
+      </c>
+      <c r="J5" s="38">
+        <v>6010</v>
+      </c>
+      <c r="K5" s="38">
+        <v>6050</v>
+      </c>
+      <c r="L5" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="M5" s="38">
         <v>0.03</v>
       </c>
-      <c r="O2" s="46" t="str" cm="1">
-        <f t="array" ref="O2">_xlfn.LET(_xlpm.arr_loot,F2:I2,
-_xlpm.arr_odds,J2:M2,
-_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,表1[#All],2,0)&amp;":"&amp;TEXT(J2:M2,"0.0%"),"")))</f>
-        <v>灵魂:1.0%; 柔软皮毛:3.0%</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="39">
-        <v>201102</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="42" t="str" cm="1">
-        <f t="array" ref="D3">_xlfn.LET(_xlpm.arr_loot,F3:I3,
-_xlpm.arr_odds,J3:M3,
-_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;J3:M3,"")))</f>
-        <v>6001=0.005</v>
-      </c>
-      <c r="F3" s="39">
+      <c r="N5" s="38">
+        <v>0.02</v>
+      </c>
+      <c r="O5" s="38">
+        <v>0.02</v>
+      </c>
+      <c r="P5" s="38">
+        <v>0.02</v>
+      </c>
+      <c r="Q5" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="S5" s="45" t="str" cm="1">
+        <f t="array" ref="S5">_xlfn.LET(_xlpm.arr_loot,F5:K5,
+_xlpm.arr_odds,L5:Q5,
+_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,table_loot[#All],2,0)&amp;":"&amp;TEXT(_xlpm.arr_odds,"0.0%"),"")))</f>
+        <v>金币:20.0%; 灵魂:3.0%; 废弃木材:2.0%; 废弃金属:2.0%; 生肉:2.0%; 食物:1.0%</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="38">
+        <v>201105</v>
+      </c>
+      <c r="B6" s="44" t="str">
+        <f>VLOOKUP(A6,monster!A:D,4,0)</f>
+        <v>跳虫骑手</v>
+      </c>
+      <c r="D6" s="41" t="str" cm="1">
+        <f t="array" ref="D6">_xlfn.LET(_xlpm.arr_loot,F6:K6,
+_xlpm.arr_odds,L6:Q6,
+_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;_xlpm.arr_odds,"")))</f>
+        <v/>
+      </c>
+      <c r="S6" s="45" t="str" cm="1">
+        <f t="array" ref="S6">_xlfn.LET(_xlpm.arr_loot,F6:K6,
+_xlpm.arr_odds,L6:Q6,
+_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,table_loot[#All],2,0)&amp;":"&amp;TEXT(_xlpm.arr_odds,"0.0%"),"")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="38">
+        <v>201106</v>
+      </c>
+      <c r="B7" s="44" t="str">
+        <f>VLOOKUP(A7,monster!A:D,4,0)</f>
+        <v>蝙蝠骑手</v>
+      </c>
+      <c r="D7" s="41" t="str" cm="1">
+        <f t="array" ref="D7">_xlfn.LET(_xlpm.arr_loot,F7:K7,
+_xlpm.arr_odds,L7:Q7,
+_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;_xlpm.arr_odds,"")))</f>
+        <v/>
+      </c>
+      <c r="S7" s="45" t="str" cm="1">
+        <f t="array" ref="S7">_xlfn.LET(_xlpm.arr_loot,F7:K7,
+_xlpm.arr_odds,L7:Q7,
+_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,table_loot[#All],2,0)&amp;":"&amp;TEXT(_xlpm.arr_odds,"0.0%"),"")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="38">
+        <v>201107</v>
+      </c>
+      <c r="B8" s="44" t="str">
+        <f>VLOOKUP(A8,monster!A:D,4,0)</f>
+        <v>洞穴人流浪者</v>
+      </c>
+      <c r="D8" s="41" t="str" cm="1">
+        <f t="array" ref="D8">_xlfn.LET(_xlpm.arr_loot,F8:K8,
+_xlpm.arr_odds,L8:Q8,
+_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;_xlpm.arr_odds,"")))</f>
+        <v>6000=0.03;6001=0.03;6022=0.1;6010=0.01;6050=0.002</v>
+      </c>
+      <c r="F8" s="38">
+        <v>6000</v>
+      </c>
+      <c r="G8" s="38">
         <v>6001</v>
       </c>
-      <c r="J3" s="39">
+      <c r="H8" s="38">
+        <v>6022</v>
+      </c>
+      <c r="I8" s="38">
+        <v>6010</v>
+      </c>
+      <c r="J8" s="38">
+        <v>6050</v>
+      </c>
+      <c r="L8" s="38">
+        <v>0.03</v>
+      </c>
+      <c r="M8" s="38">
+        <v>0.03</v>
+      </c>
+      <c r="N8" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="P8" s="38">
+        <v>2E-3</v>
+      </c>
+      <c r="S8" s="45" t="str" cm="1">
+        <f t="array" ref="S8">_xlfn.LET(_xlpm.arr_loot,F8:K8,
+_xlpm.arr_odds,L8:Q8,
+_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,table_loot[#All],2,0)&amp;":"&amp;TEXT(_xlpm.arr_odds,"0.0%"),"")))</f>
+        <v>金币:3.0%; 灵魂:3.0%; 天然石材:10.0%; 生肉:1.0%; 食物:0.2%</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="38">
+        <v>201108</v>
+      </c>
+      <c r="B9" s="44" t="str">
+        <f>VLOOKUP(A9,monster!A:D,4,0)</f>
+        <v>洞穴人纵火者</v>
+      </c>
+      <c r="D9" s="41" t="str" cm="1">
+        <f t="array" ref="D9">_xlfn.LET(_xlpm.arr_loot,F9:K9,
+_xlpm.arr_odds,L9:Q9,
+_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;_xlpm.arr_odds,"")))</f>
+        <v>6000=0.065;6001=0.03;6055=0.05;6010=0.01;6050=0.005</v>
+      </c>
+      <c r="F9" s="38">
+        <v>6000</v>
+      </c>
+      <c r="G9" s="38">
+        <v>6001</v>
+      </c>
+      <c r="H9" s="38">
+        <v>6055</v>
+      </c>
+      <c r="I9" s="38">
+        <v>6010</v>
+      </c>
+      <c r="J9" s="38">
+        <v>6050</v>
+      </c>
+      <c r="L9" s="38">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M9" s="38">
+        <v>0.03</v>
+      </c>
+      <c r="N9" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="O9" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="P9" s="38">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O3" s="46" t="str" cm="1">
-        <f t="array" ref="O3">_xlfn.LET(_xlpm.arr_loot,F3:I3,
-_xlpm.arr_odds,J3:M3,
-_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,表1[#All],2,0)&amp;":"&amp;TEXT(J3:M3,"0.0%"),"")))</f>
-        <v>灵魂:0.5%</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="39">
-        <v>201103</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="42" t="str" cm="1">
-        <f t="array" ref="D4">_xlfn.LET(_xlpm.arr_loot,F4:I4,
-_xlpm.arr_odds,J4:M4,
-_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;J4:M4,"")))</f>
-        <v>6001=0.01</v>
-      </c>
-      <c r="F4" s="39">
+      <c r="S9" s="45" t="str" cm="1">
+        <f t="array" ref="S9">_xlfn.LET(_xlpm.arr_loot,F9:K9,
+_xlpm.arr_odds,L9:Q9,
+_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,table_loot[#All],2,0)&amp;":"&amp;TEXT(_xlpm.arr_odds,"0.0%"),"")))</f>
+        <v>金币:6.5%; 灵魂:3.0%; 爆燃火药:5.0%; 生肉:1.0%; 食物:0.5%</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="38">
+        <v>201109</v>
+      </c>
+      <c r="B10" s="44" t="str">
+        <f>VLOOKUP(A10,monster!A:D,4,0)</f>
+        <v>洞穴人暴徒</v>
+      </c>
+      <c r="D10" s="41" t="str" cm="1">
+        <f t="array" ref="D10">_xlfn.LET(_xlpm.arr_loot,F10:K10,
+_xlpm.arr_odds,L10:Q10,
+_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;_xlpm.arr_odds,"")))</f>
+        <v>6000=0.1;6001=0.03;6023=0.1;6010=0.01;6050=0.005</v>
+      </c>
+      <c r="F10" s="38">
+        <v>6000</v>
+      </c>
+      <c r="G10" s="38">
         <v>6001</v>
       </c>
-      <c r="J4" s="39">
+      <c r="H10" s="38">
+        <v>6023</v>
+      </c>
+      <c r="I10" s="38">
+        <v>6010</v>
+      </c>
+      <c r="J10" s="38">
+        <v>6050</v>
+      </c>
+      <c r="L10" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="M10" s="38">
+        <v>0.03</v>
+      </c>
+      <c r="N10" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="38">
         <v>0.01</v>
       </c>
-      <c r="O4" s="46" t="str" cm="1">
-        <f t="array" ref="O4">_xlfn.LET(_xlpm.arr_loot,F4:I4,
-_xlpm.arr_odds,J4:M4,
-_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,表1[#All],2,0)&amp;":"&amp;TEXT(J4:M4,"0.0%"),"")))</f>
-        <v>灵魂:1.0%</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="39">
-        <v>201104</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="42" t="str" cm="1">
-        <f t="array" ref="D5">_xlfn.LET(_xlpm.arr_loot,F5:I5,
-_xlpm.arr_odds,J5:M5,
-_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;J5:M5,"")))</f>
-        <v>6000=0.1;6001=0.05</v>
-      </c>
-      <c r="F5" s="39">
+      <c r="P10" s="38">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S10" s="45" t="str" cm="1">
+        <f t="array" ref="S10">_xlfn.LET(_xlpm.arr_loot,F10:K10,
+_xlpm.arr_odds,L10:Q10,
+_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,table_loot[#All],2,0)&amp;":"&amp;TEXT(_xlpm.arr_odds,"0.0%"),"")))</f>
+        <v>金币:10.0%; 灵魂:3.0%; 易燃粉末:10.0%; 生肉:1.0%; 食物:0.5%</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D12" s="41" t="str" cm="1">
+        <f t="array" ref="D12">_xlfn.LET(_xlpm.arr_loot,F12:K12,
+_xlpm.arr_odds,L12:Q12,
+_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;_xlpm.arr_odds,"")))</f>
+        <v/>
+      </c>
+      <c r="S12" s="45" t="str" cm="1">
+        <f t="array" ref="S12">_xlfn.LET(_xlpm.arr_loot,F12:K12,
+_xlpm.arr_odds,L12:Q12,
+_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,table_loot[#All],2,0)&amp;":"&amp;TEXT(_xlpm.arr_odds,"0.0%"),"")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="38">
+        <v>211101</v>
+      </c>
+      <c r="B13" s="44" t="str">
+        <f>VLOOKUP(A13,monster!A:D,4,0)</f>
+        <v>地宫捕奴车</v>
+      </c>
+      <c r="D13" s="41" t="str" cm="1">
+        <f t="array" ref="D13">_xlfn.LET(_xlpm.arr_loot,F13:K13,
+_xlpm.arr_odds,L13:Q13,
+_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;_xlpm.arr_odds,"")))</f>
+        <v>6000=0.75;6001=0.4;6053=0.8;6020=1</v>
+      </c>
+      <c r="F13" s="38">
         <v>6000</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G13" s="38">
         <v>6001</v>
       </c>
-      <c r="J5" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="K5" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="O5" s="46" t="str" cm="1">
-        <f t="array" ref="O5">_xlfn.LET(_xlpm.arr_loot,F5:I5,
-_xlpm.arr_odds,J5:M5,
-_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,表1[#All],2,0)&amp;":"&amp;TEXT(J5:M5,"0.0%"),"")))</f>
-        <v>金币:10.0%; 灵魂:5.0%</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="39">
-        <v>201105</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="42" t="str" cm="1">
-        <f t="array" ref="D6">_xlfn.LET(_xlpm.arr_loot,F6:I6,
-_xlpm.arr_odds,J6:M6,
-_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;J6:M6,"")))</f>
-        <v/>
-      </c>
-      <c r="O6" s="46" t="str" cm="1">
-        <f t="array" ref="O6">_xlfn.LET(_xlpm.arr_loot,F6:I6,
-_xlpm.arr_odds,J6:M6,
-_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,表1[#All],2,0)&amp;":"&amp;TEXT(J6:M6,"0.0%"),"")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="39">
-        <v>201106</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="42" t="str" cm="1">
-        <f t="array" ref="D7">_xlfn.LET(_xlpm.arr_loot,F7:I7,
-_xlpm.arr_odds,J7:M7,
-_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;J7:M7,"")))</f>
-        <v/>
-      </c>
-      <c r="O7" s="46" t="str" cm="1">
-        <f t="array" ref="O7">_xlfn.LET(_xlpm.arr_loot,F7:I7,
-_xlpm.arr_odds,J7:M7,
-_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,表1[#All],2,0)&amp;":"&amp;TEXT(J7:M7,"0.0%"),"")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D8" s="42" t="str" cm="1">
-        <f t="array" ref="D8">_xlfn.LET(_xlpm.arr_loot,F8:I8,
-_xlpm.arr_odds,J8:M8,
-_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;J8:M8,"")))</f>
-        <v/>
-      </c>
-      <c r="O8" s="46" t="str" cm="1">
-        <f t="array" ref="O8">_xlfn.LET(_xlpm.arr_loot,F8:I8,
-_xlpm.arr_odds,J8:M8,
-_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,表1[#All],2,0)&amp;":"&amp;TEXT(J8:M8,"0.0%"),"")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="39">
-        <v>211101</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="42" t="str" cm="1">
-        <f t="array" ref="D9">_xlfn.LET(_xlpm.arr_loot,F9:I9,
-_xlpm.arr_odds,J9:M9,
-_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;J9:M9,"")))</f>
-        <v>6000=0.75;6001=0.4;6053=0.8;6020=1</v>
-      </c>
-      <c r="F9" s="39">
+      <c r="H13" s="38">
+        <v>6053</v>
+      </c>
+      <c r="I13" s="38">
+        <v>6020</v>
+      </c>
+      <c r="L13" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="M13" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="N13" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="O13" s="38">
+        <v>1</v>
+      </c>
+      <c r="S13" s="45" t="str" cm="1">
+        <f t="array" ref="S13">_xlfn.LET(_xlpm.arr_loot,F13:K13,
+_xlpm.arr_odds,L13:Q13,
+_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,table_loot[#All],2,0)&amp;":"&amp;TEXT(_xlpm.arr_odds,"0.0%"),"")))</f>
+        <v>金币:75.0%; 灵魂:40.0%; 金属零件:80.0%; 天然木材:100.0%</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="38">
+        <v>211102</v>
+      </c>
+      <c r="B14" s="44" t="str">
+        <f>VLOOKUP(A14,monster!A:D,4,0)</f>
+        <v>地宫装甲车</v>
+      </c>
+      <c r="D14" s="41" t="str" cm="1">
+        <f t="array" ref="D14">_xlfn.LET(_xlpm.arr_loot,F14:K14,
+_xlpm.arr_odds,L14:Q14,
+_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;_xlpm.arr_odds,"")))</f>
+        <v>6000=0.6;6001=0.8;6053=0.95;6031=1</v>
+      </c>
+      <c r="F14" s="38">
         <v>6000</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G14" s="38">
         <v>6001</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H14" s="38">
         <v>6053</v>
       </c>
-      <c r="I9" s="39">
-        <v>6020</v>
-      </c>
-      <c r="J9" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="K9" s="39">
-        <v>0.4</v>
-      </c>
-      <c r="L9" s="39">
+      <c r="I14" s="38">
+        <v>6031</v>
+      </c>
+      <c r="L14" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="M14" s="38">
         <v>0.8</v>
       </c>
-      <c r="M9" s="39">
-        <v>1</v>
-      </c>
-      <c r="O9" s="46" t="str" cm="1">
-        <f t="array" ref="O9">_xlfn.LET(_xlpm.arr_loot,F9:I9,
-_xlpm.arr_odds,J9:M9,
-_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,表1[#All],2,0)&amp;":"&amp;TEXT(J9:M9,"0.0%"),"")))</f>
-        <v>金币:75.0%; 灵魂:40.0%; 金属零件:80.0%; 天然木材:100.0%</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="39">
-        <v>211102</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="42" t="str" cm="1">
-        <f t="array" ref="D10">_xlfn.LET(_xlpm.arr_loot,F10:I10,
-_xlpm.arr_odds,J10:M10,
-_xlfn.TEXTJOIN(";",1,IF(_xlpm.arr_loot&lt;&gt;"",_xlpm.arr_loot&amp;"="&amp;J10:M10,"")))</f>
-        <v>6000=0.6;6001=0.8;6053=0.95;6031=1</v>
-      </c>
-      <c r="F10" s="39">
-        <v>6000</v>
-      </c>
-      <c r="G10" s="39">
-        <v>6001</v>
-      </c>
-      <c r="H10" s="39">
-        <v>6053</v>
-      </c>
-      <c r="I10" s="39">
-        <v>6031</v>
-      </c>
-      <c r="J10" s="39">
-        <v>0.6</v>
-      </c>
-      <c r="K10" s="39">
-        <v>0.8</v>
-      </c>
-      <c r="L10" s="39">
+      <c r="N14" s="38">
         <v>0.95</v>
       </c>
-      <c r="M10" s="39">
-        <v>1</v>
-      </c>
-      <c r="O10" s="46" t="str" cm="1">
-        <f t="array" ref="O10">_xlfn.LET(_xlpm.arr_loot,F10:I10,
-_xlpm.arr_odds,J10:M10,
-_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,表1[#All],2,0)&amp;":"&amp;TEXT(J10:M10,"0.0%"),"")))</f>
+      <c r="O14" s="38">
+        <v>1</v>
+      </c>
+      <c r="S14" s="45" t="str" cm="1">
+        <f t="array" ref="S14">_xlfn.LET(_xlpm.arr_loot,F14:K14,
+_xlpm.arr_odds,L14:Q14,
+_xlfn.TEXTJOIN("; ",1,IF(_xlpm.arr_loot&lt;&gt;"",VLOOKUP(_xlpm.arr_loot,table_loot[#All],2,0)&amp;":"&amp;TEXT(_xlpm.arr_odds,"0.0%"),"")))</f>
         <v>金币:60.0%; 灵魂:80.0%; 金属零件:95.0%; 废弃金属:100.0%</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="T12" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" s="40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="T13" s="39">
-        <v>6000</v>
-      </c>
-      <c r="U13" s="39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="T14" s="39">
-        <v>6001</v>
-      </c>
-      <c r="U14" s="39" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="T16" s="39">
-        <v>6010</v>
-      </c>
-      <c r="U16" s="39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T17" s="39">
-        <v>6011</v>
-      </c>
-      <c r="U17" s="39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T18" s="39">
-        <v>6012</v>
-      </c>
-      <c r="U18" s="39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T20" s="39">
-        <v>6020</v>
-      </c>
-      <c r="U20" s="39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T21" s="39">
-        <v>6021</v>
-      </c>
-      <c r="U21" s="39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T22" s="39">
-        <v>6022</v>
-      </c>
-      <c r="U22" s="39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T23" s="39">
-        <v>6023</v>
-      </c>
-      <c r="U23" s="39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T25" s="39">
-        <v>6030</v>
-      </c>
-      <c r="U25" s="39" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T26" s="39">
-        <v>6031</v>
-      </c>
-      <c r="U26" s="39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T28" s="39">
-        <v>6050</v>
-      </c>
-      <c r="U28" s="39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T29" s="39">
-        <v>6051</v>
-      </c>
-      <c r="U29" s="39" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T30" s="39">
-        <v>6052</v>
-      </c>
-      <c r="U30" s="39" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="31" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T31" s="39">
-        <v>6053</v>
-      </c>
-      <c r="U31" s="39" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T32" s="39">
-        <v>6054</v>
-      </c>
-      <c r="U32" s="39" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="33" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T33" s="39">
-        <v>6055</v>
-      </c>
-      <c r="U33" s="39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T35" s="39">
-        <v>6070</v>
-      </c>
-      <c r="U35" s="39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T36" s="39">
-        <v>6071</v>
-      </c>
-      <c r="U36" s="39" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T37" s="39">
-        <v>6072</v>
-      </c>
-      <c r="U37" s="39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T38" s="39">
-        <v>6073</v>
-      </c>
-      <c r="U38" s="39" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="20:21" x14ac:dyDescent="0.2">
-      <c r="T39" s="39">
-        <v>6074</v>
-      </c>
-      <c r="U39" s="39" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2888,7 +3348,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2908,17 +3368,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -2928,7 +3388,7 @@
       <c r="L1" s="29"/>
       <c r="M1" s="4"/>
       <c r="N1" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2939,14 +3399,14 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
@@ -2961,46 +3421,46 @@
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G3" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="L3" s="37" t="s">
         <v>120</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>124</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -3014,7 +3474,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E4" s="13">
         <v>101101</v>
@@ -3030,7 +3490,7 @@
         <v>1311101</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N4" s="15" t="str">
         <f>_xlfn.TEXTJOIN("_",1,"Car_AI",$M4)</f>
@@ -3048,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E5" s="13">
         <v>101101</v>
@@ -3064,10 +3524,10 @@
         <v>1311101</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -3081,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E6" s="13">
         <v>101101</v>
@@ -3097,10 +3557,10 @@
         <v>1311101</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -3114,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E7" s="13">
         <v>101101</v>
@@ -3130,10 +3590,10 @@
         <v>1311101</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -3147,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E8" s="13">
         <v>101101</v>
@@ -3166,10 +3626,10 @@
         <v>1311101</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -3183,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E9" s="13">
         <v>101101</v>
@@ -3202,10 +3662,10 @@
         <v>1311101</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3222,7 +3682,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E11" s="13">
         <v>101102</v>
@@ -3235,7 +3695,7 @@
         <v>1210101</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N11" s="15" t="str">
         <f t="shared" ref="N11:N16" si="0">_xlfn.TEXTJOIN("_",1,"Car_AI",$M11)</f>
@@ -3253,7 +3713,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E12" s="13">
         <v>101102</v>
@@ -3266,7 +3726,7 @@
         <v>1210101</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3284,7 +3744,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E13" s="13">
         <v>101102</v>
@@ -3300,7 +3760,7 @@
         <v>1311102</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N13" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3318,7 +3778,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E14" s="13">
         <v>101102</v>
@@ -3334,7 +3794,7 @@
         <v>1311102</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N14" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3352,7 +3812,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E15" s="13">
         <v>101102</v>
@@ -3368,7 +3828,7 @@
         <v>1321101</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3386,7 +3846,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E16" s="13">
         <v>101102</v>
@@ -3402,7 +3862,7 @@
         <v>1321102</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N16" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3417,11 +3877,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AC5730-0C5F-4390-82DB-B0D702DF6F41}">
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q54" sqref="Q54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3434,181 +3894,203 @@
     <col min="9" max="9" width="9.5" style="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.25" style="48" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.875" style="13" customWidth="1"/>
-    <col min="17" max="18" width="13" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.125" style="13"/>
+    <col min="15" max="15" width="11.75" style="13" customWidth="1"/>
+    <col min="16" max="16" width="5" style="48" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.875" style="13" customWidth="1"/>
+    <col min="20" max="21" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
       <c r="G2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
       <c r="J2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+        <v>49</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>35</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
       <c r="R2" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="11" t="s">
+      <c r="W3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -3623,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="32">
-        <f>O4</f>
+        <f>R4</f>
         <v>0</v>
       </c>
       <c r="F4" s="32">
@@ -3633,7 +4115,7 @@
         <v>201101</v>
       </c>
       <c r="H4" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G4,monster!A:C,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(G4,monster!A:D,4,0),"")</f>
         <v>地宫蝙蝠</v>
       </c>
       <c r="I4" s="25" t="str" cm="1">
@@ -3643,44 +4125,48 @@
         <v>前上</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="33" t="str">
         <f>L4+0&amp;","&amp;M4+0</f>
         <v>15,10</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="48">
         <v>15</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="48">
         <v>10</v>
       </c>
       <c r="N4" s="13">
-        <v>1</v>
-      </c>
-      <c r="O4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
+        <v>2</v>
+      </c>
+      <c r="O4" s="33" t="str">
+        <f t="shared" ref="O4:O23" si="0">IF(P4&lt;&gt;"", P4+0&amp;","&amp;Q4+0,"")</f>
+        <v/>
+      </c>
+      <c r="R4" s="13">
+        <v>0</v>
+      </c>
+      <c r="S4" s="13">
         <v>11</v>
       </c>
-      <c r="Q4" s="13">
-        <v>1</v>
-      </c>
-      <c r="R4" s="13">
+      <c r="T4" s="13">
+        <v>1</v>
+      </c>
+      <c r="U4" s="13">
         <v>5</v>
       </c>
-      <c r="S4" s="13">
+      <c r="V4" s="13">
         <v>3</v>
       </c>
-      <c r="T4" s="13">
+      <c r="W4" s="13">
         <v>3</v>
       </c>
-      <c r="U4" s="13">
+      <c r="X4" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -3695,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="32">
-        <f>O5</f>
+        <f>R5</f>
         <v>1</v>
       </c>
       <c r="F5" s="32">
@@ -3705,7 +4191,7 @@
         <v>201101</v>
       </c>
       <c r="H5" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G5,monster!A:C,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(G5,monster!A:D,4,0),"")</f>
         <v>地宫蝙蝠</v>
       </c>
       <c r="I5" s="25" t="str" cm="1">
@@ -3715,44 +4201,48 @@
         <v>前上</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5" s="33" t="str">
-        <f t="shared" ref="K5:K29" si="0">L5+0&amp;","&amp;M5+0</f>
+        <f t="shared" ref="K5:K40" si="1">L5+0&amp;","&amp;M5+0</f>
         <v>15,10</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="48">
         <v>15</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="48">
         <v>10</v>
       </c>
       <c r="N5" s="13">
         <v>1</v>
       </c>
-      <c r="O5" s="13">
-        <v>1</v>
-      </c>
-      <c r="P5" s="13">
+      <c r="O5" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R5" s="13">
+        <v>1</v>
+      </c>
+      <c r="S5" s="13">
         <v>11</v>
       </c>
-      <c r="Q5" s="13">
-        <v>1</v>
-      </c>
-      <c r="R5" s="13">
-        <v>1</v>
-      </c>
-      <c r="S5" s="13">
+      <c r="T5" s="13">
+        <v>1</v>
+      </c>
+      <c r="U5" s="13">
+        <v>1</v>
+      </c>
+      <c r="V5" s="13">
         <v>3</v>
       </c>
-      <c r="T5" s="13">
+      <c r="W5" s="13">
         <v>2</v>
       </c>
-      <c r="U5" s="13">
+      <c r="X5" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>1</v>
       </c>
@@ -3767,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="32">
-        <f>O6</f>
+        <f>R6</f>
         <v>2</v>
       </c>
       <c r="F6" s="32">
@@ -3777,7 +4267,7 @@
         <v>201101</v>
       </c>
       <c r="H6" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G6,monster!A:C,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(G6,monster!A:D,4,0),"")</f>
         <v>地宫蝙蝠</v>
       </c>
       <c r="I6" s="25" t="str" cm="1">
@@ -3787,44 +4277,48 @@
         <v>前上</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>15,10</v>
+      </c>
+      <c r="L6" s="48">
+        <v>15</v>
+      </c>
+      <c r="M6" s="48">
+        <v>10</v>
+      </c>
+      <c r="N6" s="13">
+        <v>1</v>
+      </c>
+      <c r="O6" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>15,10</v>
-      </c>
-      <c r="L6" s="32">
-        <v>15</v>
-      </c>
-      <c r="M6" s="32">
-        <v>10</v>
-      </c>
-      <c r="N6" s="13">
-        <v>1</v>
-      </c>
-      <c r="O6" s="13">
+        <v/>
+      </c>
+      <c r="R6" s="13">
         <v>2</v>
       </c>
-      <c r="P6" s="13">
+      <c r="S6" s="13">
         <v>11</v>
       </c>
-      <c r="Q6" s="13">
-        <v>1</v>
-      </c>
-      <c r="R6" s="13">
-        <v>1</v>
-      </c>
-      <c r="S6" s="13">
+      <c r="T6" s="13">
+        <v>1</v>
+      </c>
+      <c r="U6" s="13">
+        <v>1</v>
+      </c>
+      <c r="V6" s="13">
         <v>3</v>
       </c>
-      <c r="T6" s="13">
+      <c r="W6" s="13">
         <v>2</v>
       </c>
-      <c r="U6" s="13">
+      <c r="X6" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>1</v>
       </c>
@@ -3839,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="32">
-        <f>O7</f>
+        <f>R7</f>
         <v>3</v>
       </c>
       <c r="F7" s="32">
@@ -3849,7 +4343,7 @@
         <v>201101</v>
       </c>
       <c r="H7" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G7,monster!A:C,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(G7,monster!A:D,4,0),"")</f>
         <v>地宫蝙蝠</v>
       </c>
       <c r="I7" s="25" t="str" cm="1">
@@ -3859,46 +4353,50 @@
         <v>前上</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15,10</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="48">
         <v>15</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="48">
         <v>10</v>
       </c>
       <c r="N7" s="13">
         <v>3</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R7" s="13">
         <v>3</v>
       </c>
-      <c r="P7" s="13">
+      <c r="S7" s="13">
         <v>11</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>6</v>
-      </c>
-      <c r="R7" s="13">
-        <v>16</v>
-      </c>
-      <c r="S7" s="13">
-        <v>3</v>
       </c>
       <c r="T7" s="13">
         <v>6</v>
       </c>
       <c r="U7" s="13">
+        <v>16</v>
+      </c>
+      <c r="V7" s="13">
+        <v>3</v>
+      </c>
+      <c r="W7" s="13">
+        <v>6</v>
+      </c>
+      <c r="X7" s="13">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H8" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G8,monster!A:C,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(G8,monster!A:D,4,0),"")</f>
         <v/>
       </c>
       <c r="I8" s="25" t="str" cm="1">
@@ -3908,8 +4406,12 @@
         <v/>
       </c>
       <c r="K8" s="33"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O8" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>1</v>
       </c>
@@ -3924,7 +4426,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="32">
-        <f>O9</f>
+        <f>R9</f>
         <v>0</v>
       </c>
       <c r="F9" s="32">
@@ -3934,7 +4436,7 @@
         <v>201101</v>
       </c>
       <c r="H9" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G9,monster!A:C,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(G9,monster!A:D,4,0),"")</f>
         <v>地宫蝙蝠</v>
       </c>
       <c r="I9" s="25" t="str" cm="1">
@@ -3944,44 +4446,48 @@
         <v>后上</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>-15,10</v>
+      </c>
+      <c r="L9" s="48">
+        <v>-15</v>
+      </c>
+      <c r="M9" s="48">
+        <v>10</v>
+      </c>
+      <c r="N9" s="13">
+        <v>3</v>
+      </c>
+      <c r="O9" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>-15,10</v>
-      </c>
-      <c r="L9" s="32">
-        <v>-15</v>
-      </c>
-      <c r="M9" s="32">
-        <v>10</v>
-      </c>
-      <c r="N9" s="13">
-        <v>2</v>
-      </c>
-      <c r="O9" s="13">
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
+        <v/>
+      </c>
+      <c r="R9" s="13">
+        <v>0</v>
+      </c>
+      <c r="S9" s="13">
         <v>11</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="T9" s="13">
         <v>0.5</v>
       </c>
-      <c r="R9" s="13">
+      <c r="U9" s="13">
         <v>4</v>
       </c>
-      <c r="S9" s="13">
+      <c r="V9" s="13">
         <v>3</v>
       </c>
-      <c r="T9" s="13">
+      <c r="W9" s="13">
         <v>4</v>
       </c>
-      <c r="U9" s="13">
+      <c r="X9" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>1</v>
       </c>
@@ -3996,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="32">
-        <f>O10</f>
+        <f>R10</f>
         <v>1</v>
       </c>
       <c r="F10" s="32">
@@ -4006,7 +4512,7 @@
         <v>201101</v>
       </c>
       <c r="H10" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G10,monster!A:C,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(G10,monster!A:D,4,0),"")</f>
         <v>地宫蝙蝠</v>
       </c>
       <c r="I10" s="25" t="str" cm="1">
@@ -4016,44 +4522,48 @@
         <v>后上</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>-15,10</v>
+      </c>
+      <c r="L10" s="48">
+        <v>-15</v>
+      </c>
+      <c r="M10" s="48">
+        <v>10</v>
+      </c>
+      <c r="N10" s="13">
+        <v>1</v>
+      </c>
+      <c r="O10" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>-15,10</v>
-      </c>
-      <c r="L10" s="32">
-        <v>-15</v>
-      </c>
-      <c r="M10" s="32">
-        <v>10</v>
-      </c>
-      <c r="N10" s="13">
-        <v>1</v>
-      </c>
-      <c r="O10" s="13">
-        <v>1</v>
-      </c>
-      <c r="P10" s="13">
+        <v/>
+      </c>
+      <c r="R10" s="13">
+        <v>1</v>
+      </c>
+      <c r="S10" s="13">
         <v>11</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="T10" s="13">
         <v>0.5</v>
       </c>
-      <c r="R10" s="13">
-        <v>1</v>
-      </c>
-      <c r="S10" s="13">
+      <c r="U10" s="13">
+        <v>1</v>
+      </c>
+      <c r="V10" s="13">
         <v>3</v>
       </c>
-      <c r="T10" s="13">
+      <c r="W10" s="13">
         <v>2</v>
       </c>
-      <c r="U10" s="13">
+      <c r="X10" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -4068,7 +4578,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="32">
-        <f>O11</f>
+        <f>R11</f>
         <v>2</v>
       </c>
       <c r="F11" s="32">
@@ -4078,7 +4588,7 @@
         <v>201101</v>
       </c>
       <c r="H11" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G11,monster!A:C,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(G11,monster!A:D,4,0),"")</f>
         <v>地宫蝙蝠</v>
       </c>
       <c r="I11" s="25" t="str" cm="1">
@@ -4088,44 +4598,48 @@
         <v>后上</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-15,10</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="48">
         <v>-15</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="48">
         <v>10</v>
       </c>
       <c r="N11" s="13">
         <v>5</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R11" s="13">
         <v>2</v>
       </c>
-      <c r="P11" s="13">
+      <c r="S11" s="13">
         <v>11</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="T11" s="13">
         <v>0.5</v>
       </c>
-      <c r="R11" s="13">
-        <v>1</v>
-      </c>
-      <c r="S11" s="13">
+      <c r="U11" s="13">
+        <v>1</v>
+      </c>
+      <c r="V11" s="13">
         <v>3</v>
       </c>
-      <c r="T11" s="13">
+      <c r="W11" s="13">
         <v>2</v>
       </c>
-      <c r="U11" s="13">
+      <c r="X11" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>1</v>
       </c>
@@ -4140,7 +4654,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="32">
-        <f>O12</f>
+        <f>R12</f>
         <v>3</v>
       </c>
       <c r="F12" s="32">
@@ -4150,7 +4664,7 @@
         <v>201101</v>
       </c>
       <c r="H12" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G12,monster!A:C,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(G12,monster!A:D,4,0),"")</f>
         <v>地宫蝙蝠</v>
       </c>
       <c r="I12" s="25" t="str" cm="1">
@@ -4160,46 +4674,50 @@
         <v>后上</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-15,10</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="48">
         <v>-15</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="48">
         <v>10</v>
       </c>
       <c r="N12" s="13">
         <v>5</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R12" s="13">
         <v>3</v>
       </c>
-      <c r="P12" s="13">
+      <c r="S12" s="13">
         <v>11</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="T12" s="13">
         <v>10</v>
       </c>
-      <c r="R12" s="13">
+      <c r="U12" s="13">
         <v>12</v>
       </c>
-      <c r="S12" s="13">
+      <c r="V12" s="13">
         <v>3</v>
       </c>
-      <c r="T12" s="13">
+      <c r="W12" s="13">
         <v>6</v>
       </c>
-      <c r="U12" s="13">
+      <c r="X12" s="13">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H13" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G13,monster!A:C,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(G13,monster!A:D,4,0),"")</f>
         <v/>
       </c>
       <c r="I13" s="25" t="str" cm="1">
@@ -4210,8 +4728,12 @@
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O13" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>1</v>
       </c>
@@ -4226,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="32">
-        <f>O14</f>
+        <f>R14</f>
         <v>0</v>
       </c>
       <c r="F14" s="32">
@@ -4236,8 +4758,8 @@
         <v>201102</v>
       </c>
       <c r="H14" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G14,monster!A:C,3,0),"")</f>
-        <v>地宫甲虫</v>
+        <f>IFERROR(VLOOKUP(G14,monster!A:D,4,0),"")</f>
+        <v>自爆甲虫</v>
       </c>
       <c r="I14" s="25" t="str" cm="1">
         <f t="array" ref="I14">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L14,M14))*6/PI(),
@@ -4246,42 +4768,46 @@
         <v>正前</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>15,-1</v>
+      </c>
+      <c r="L14" s="48">
+        <v>15</v>
+      </c>
+      <c r="M14" s="48">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="13">
+        <v>2</v>
+      </c>
+      <c r="O14" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>15,-1</v>
-      </c>
-      <c r="L14" s="32">
-        <v>15</v>
-      </c>
-      <c r="M14" s="32">
-        <v>-1</v>
-      </c>
-      <c r="N14" s="13">
-        <v>1</v>
-      </c>
-      <c r="O14" s="13">
-        <v>0</v>
-      </c>
-      <c r="P14" s="13">
+        <v/>
+      </c>
+      <c r="R14" s="13">
+        <v>0</v>
+      </c>
+      <c r="S14" s="13">
         <v>11</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="T14" s="13">
         <v>0.03</v>
       </c>
-      <c r="R14" s="13">
-        <v>0</v>
-      </c>
-      <c r="S14" s="13">
+      <c r="U14" s="13">
+        <v>0</v>
+      </c>
+      <c r="V14" s="13">
         <v>30</v>
       </c>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26">
+      <c r="W14" s="26"/>
+      <c r="X14" s="26">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -4296,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="32">
-        <f>O15</f>
+        <f>R15</f>
         <v>1</v>
       </c>
       <c r="F15" s="32">
@@ -4306,8 +4832,8 @@
         <v>201102</v>
       </c>
       <c r="H15" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G15,monster!A:C,3,0),"")</f>
-        <v>地宫甲虫</v>
+        <f>IFERROR(VLOOKUP(G15,monster!A:D,4,0),"")</f>
+        <v>自爆甲虫</v>
       </c>
       <c r="I15" s="25" t="str" cm="1">
         <f t="array" ref="I15">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L15,M15))*6/PI(),
@@ -4316,42 +4842,46 @@
         <v>正前</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>15,-1</v>
+      </c>
+      <c r="L15" s="48">
+        <v>15</v>
+      </c>
+      <c r="M15" s="48">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="13">
+        <v>1</v>
+      </c>
+      <c r="O15" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>15,-1</v>
-      </c>
-      <c r="L15" s="32">
-        <v>15</v>
-      </c>
-      <c r="M15" s="32">
-        <v>-1</v>
-      </c>
-      <c r="N15" s="13">
-        <v>1</v>
-      </c>
-      <c r="O15" s="13">
-        <v>1</v>
-      </c>
-      <c r="P15" s="13">
+        <v/>
+      </c>
+      <c r="R15" s="13">
+        <v>1</v>
+      </c>
+      <c r="S15" s="13">
         <v>11</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="T15" s="13">
         <v>0.01</v>
       </c>
-      <c r="R15" s="13">
-        <v>0</v>
-      </c>
-      <c r="S15" s="13">
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
         <v>30</v>
       </c>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26">
+      <c r="W15" s="26"/>
+      <c r="X15" s="26">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>1</v>
       </c>
@@ -4366,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="32">
-        <f>O16</f>
+        <f>R16</f>
         <v>3</v>
       </c>
       <c r="F16" s="32">
@@ -4376,8 +4906,8 @@
         <v>201102</v>
       </c>
       <c r="H16" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G16,monster!A:C,3,0),"")</f>
-        <v>地宫甲虫</v>
+        <f>IFERROR(VLOOKUP(G16,monster!A:D,4,0),"")</f>
+        <v>自爆甲虫</v>
       </c>
       <c r="I16" s="25" t="str" cm="1">
         <f t="array" ref="I16">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L16,M16))*6/PI(),
@@ -4386,44 +4916,48 @@
         <v>正前</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15,-1</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="48">
         <v>15</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="48">
         <v>-1</v>
       </c>
       <c r="N16" s="13">
         <v>2</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R16" s="13">
         <v>3</v>
       </c>
-      <c r="P16" s="13">
+      <c r="S16" s="13">
         <v>11</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="T16" s="13">
         <v>3.5</v>
       </c>
-      <c r="R16" s="13">
-        <v>0</v>
-      </c>
-      <c r="S16" s="13">
+      <c r="U16" s="13">
+        <v>0</v>
+      </c>
+      <c r="V16" s="13">
         <v>30</v>
       </c>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26">
+      <c r="W16" s="26"/>
+      <c r="X16" s="26">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H17" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G17,monster!A:C,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(G17,monster!A:D,4,0),"")</f>
         <v/>
       </c>
       <c r="I17" s="25" t="str" cm="1">
@@ -4433,10 +4967,14 @@
         <v/>
       </c>
       <c r="K17" s="33"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O17" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" s="13" t="str" cm="1">
         <f t="array" ref="B18">C18&amp;_xlfn.TEXTJOIN("",1,TEXT(D18:F18,"00"))</f>
@@ -4449,7 +4987,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="32">
-        <f>O18</f>
+        <f>R18</f>
         <v>0</v>
       </c>
       <c r="F18" s="32">
@@ -4459,8 +4997,8 @@
         <v>201102</v>
       </c>
       <c r="H18" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G18,monster!A:C,3,0),"")</f>
-        <v>地宫甲虫</v>
+        <f>IFERROR(VLOOKUP(G18,monster!A:D,4,0),"")</f>
+        <v>自爆甲虫</v>
       </c>
       <c r="I18" s="25" t="str" cm="1">
         <f t="array" ref="I18">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L18,M18))*6/PI(),
@@ -4469,40 +5007,44 @@
         <v>前上</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>20,12</v>
+      </c>
+      <c r="L18" s="48">
+        <v>20</v>
+      </c>
+      <c r="M18" s="48">
+        <v>12</v>
+      </c>
+      <c r="N18" s="26"/>
+      <c r="O18" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>20,12</v>
-      </c>
-      <c r="L18" s="32">
-        <v>20</v>
-      </c>
-      <c r="M18" s="32">
-        <v>12</v>
-      </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="13">
-        <v>0</v>
-      </c>
-      <c r="P18" s="13">
+        <v/>
+      </c>
+      <c r="R18" s="13">
+        <v>0</v>
+      </c>
+      <c r="S18" s="13">
         <v>11</v>
       </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="13">
-        <v>0</v>
-      </c>
-      <c r="T18" s="13">
-        <v>1</v>
-      </c>
-      <c r="U18" s="33">
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="13">
+        <v>0</v>
+      </c>
+      <c r="W18" s="13">
+        <v>1</v>
+      </c>
+      <c r="X18" s="33">
         <v>1.8</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" s="13" t="str" cm="1">
         <f t="array" ref="B19">C19&amp;_xlfn.TEXTJOIN("",1,TEXT(D19:F19,"00"))</f>
@@ -4515,7 +5057,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="32">
-        <f>O19</f>
+        <f>R19</f>
         <v>0</v>
       </c>
       <c r="F19" s="32">
@@ -4525,8 +5067,8 @@
         <v>201102</v>
       </c>
       <c r="H19" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G19,monster!A:C,3,0),"")</f>
-        <v>地宫甲虫</v>
+        <f>IFERROR(VLOOKUP(G19,monster!A:D,4,0),"")</f>
+        <v>自爆甲虫</v>
       </c>
       <c r="I19" s="25" t="str" cm="1">
         <f t="array" ref="I19">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L19,M19))*6/PI(),
@@ -4535,40 +5077,44 @@
         <v>正前</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>20,8</v>
+      </c>
+      <c r="L19" s="48">
+        <v>20</v>
+      </c>
+      <c r="M19" s="48">
+        <v>8</v>
+      </c>
+      <c r="N19" s="26"/>
+      <c r="O19" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>20,8</v>
-      </c>
-      <c r="L19" s="32">
-        <v>20</v>
-      </c>
-      <c r="M19" s="32">
-        <v>8</v>
-      </c>
-      <c r="N19" s="26"/>
-      <c r="O19" s="13">
-        <v>0</v>
-      </c>
-      <c r="P19" s="13">
+        <v/>
+      </c>
+      <c r="R19" s="13">
+        <v>0</v>
+      </c>
+      <c r="S19" s="13">
         <v>11</v>
       </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="13">
-        <v>0</v>
-      </c>
-      <c r="T19" s="13">
-        <v>1</v>
-      </c>
-      <c r="U19" s="13">
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="13">
+        <v>0</v>
+      </c>
+      <c r="W19" s="13">
+        <v>1</v>
+      </c>
+      <c r="X19" s="13">
         <v>2.6</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" s="13" t="str" cm="1">
         <f t="array" ref="B20">C20&amp;_xlfn.TEXTJOIN("",1,TEXT(D20:F20,"00"))</f>
@@ -4581,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="32">
-        <f>O20</f>
+        <f>R20</f>
         <v>0</v>
       </c>
       <c r="F20" s="32">
@@ -4591,8 +5137,8 @@
         <v>201102</v>
       </c>
       <c r="H20" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G20,monster!A:C,3,0),"")</f>
-        <v>地宫甲虫</v>
+        <f>IFERROR(VLOOKUP(G20,monster!A:D,4,0),"")</f>
+        <v>自爆甲虫</v>
       </c>
       <c r="I20" s="25" t="str" cm="1">
         <f t="array" ref="I20">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L20,M20))*6/PI(),
@@ -4601,40 +5147,44 @@
         <v>正前</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K20" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>20,5</v>
+      </c>
+      <c r="L20" s="48">
+        <v>20</v>
+      </c>
+      <c r="M20" s="48">
+        <v>5</v>
+      </c>
+      <c r="N20" s="26"/>
+      <c r="O20" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>20,5</v>
-      </c>
-      <c r="L20" s="32">
-        <v>20</v>
-      </c>
-      <c r="M20" s="32">
-        <v>5</v>
-      </c>
-      <c r="N20" s="26"/>
-      <c r="O20" s="13">
-        <v>0</v>
-      </c>
-      <c r="P20" s="13">
+        <v/>
+      </c>
+      <c r="R20" s="13">
+        <v>0</v>
+      </c>
+      <c r="S20" s="13">
         <v>11</v>
       </c>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="13">
-        <v>0</v>
-      </c>
-      <c r="T20" s="13">
-        <v>1</v>
-      </c>
-      <c r="U20" s="13">
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="13">
+        <v>0</v>
+      </c>
+      <c r="W20" s="13">
+        <v>1</v>
+      </c>
+      <c r="X20" s="13">
         <v>3.4000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" s="13" t="str" cm="1">
         <f t="array" ref="B21">C21&amp;_xlfn.TEXTJOIN("",1,TEXT(D21:F21,"00"))</f>
@@ -4647,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="32">
-        <f>O21</f>
+        <f>R21</f>
         <v>0</v>
       </c>
       <c r="F21" s="32">
@@ -4657,8 +5207,8 @@
         <v>201102</v>
       </c>
       <c r="H21" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G21,monster!A:C,3,0),"")</f>
-        <v>地宫甲虫</v>
+        <f>IFERROR(VLOOKUP(G21,monster!A:D,4,0),"")</f>
+        <v>自爆甲虫</v>
       </c>
       <c r="I21" s="25" t="str" cm="1">
         <f t="array" ref="I21">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L21,M21))*6/PI(),
@@ -4667,40 +5217,44 @@
         <v>正前</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>20,2</v>
+      </c>
+      <c r="L21" s="48">
+        <v>20</v>
+      </c>
+      <c r="M21" s="48">
+        <v>2</v>
+      </c>
+      <c r="N21" s="26"/>
+      <c r="O21" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>20,2</v>
-      </c>
-      <c r="L21" s="32">
-        <v>20</v>
-      </c>
-      <c r="M21" s="32">
-        <v>2</v>
-      </c>
-      <c r="N21" s="26"/>
-      <c r="O21" s="13">
-        <v>0</v>
-      </c>
-      <c r="P21" s="13">
+        <v/>
+      </c>
+      <c r="R21" s="13">
+        <v>0</v>
+      </c>
+      <c r="S21" s="13">
         <v>11</v>
       </c>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="13">
-        <v>0</v>
-      </c>
-      <c r="T21" s="13">
-        <v>1</v>
-      </c>
-      <c r="U21" s="13">
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="13">
+        <v>0</v>
+      </c>
+      <c r="W21" s="13">
+        <v>1</v>
+      </c>
+      <c r="X21" s="13">
         <v>4.6000000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" s="13" t="str" cm="1">
         <f t="array" ref="B22">C22&amp;_xlfn.TEXTJOIN("",1,TEXT(D22:F22,"00"))</f>
@@ -4713,7 +5267,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="32">
-        <f>O22</f>
+        <f>R22</f>
         <v>0</v>
       </c>
       <c r="F22" s="32">
@@ -4723,8 +5277,8 @@
         <v>201102</v>
       </c>
       <c r="H22" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G22,monster!A:C,3,0),"")</f>
-        <v>地宫甲虫</v>
+        <f>IFERROR(VLOOKUP(G22,monster!A:D,4,0),"")</f>
+        <v>自爆甲虫</v>
       </c>
       <c r="I22" s="25" t="str" cm="1">
         <f t="array" ref="I22">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L22,M22))*6/PI(),
@@ -4733,40 +5287,44 @@
         <v>正后</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K22" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>-15,5</v>
+      </c>
+      <c r="L22" s="48">
+        <v>-15</v>
+      </c>
+      <c r="M22" s="48">
+        <v>5</v>
+      </c>
+      <c r="N22" s="26"/>
+      <c r="O22" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>-15,5</v>
-      </c>
-      <c r="L22" s="32">
-        <v>-15</v>
-      </c>
-      <c r="M22" s="32">
-        <v>5</v>
-      </c>
-      <c r="N22" s="26"/>
-      <c r="O22" s="13">
-        <v>0</v>
-      </c>
-      <c r="P22" s="13">
+        <v/>
+      </c>
+      <c r="R22" s="13">
+        <v>0</v>
+      </c>
+      <c r="S22" s="13">
         <v>11</v>
       </c>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="13">
-        <v>0</v>
-      </c>
-      <c r="T22" s="13">
-        <v>1</v>
-      </c>
-      <c r="U22" s="13">
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="13">
+        <v>0</v>
+      </c>
+      <c r="W22" s="13">
+        <v>1</v>
+      </c>
+      <c r="X22" s="13">
         <v>6.2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H23" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G23,monster!A:C,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(G23,monster!A:D,4,0),"")</f>
         <v/>
       </c>
       <c r="I23" s="25" t="str" cm="1">
@@ -4776,10 +5334,14 @@
         <v/>
       </c>
       <c r="K23" s="33"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O23" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" s="13" t="str" cm="1">
         <f t="array" ref="B24">C24&amp;_xlfn.TEXTJOIN("",1,TEXT(D24:F24,"00"))</f>
@@ -4801,7 +5363,7 @@
         <v>201104</v>
       </c>
       <c r="H24" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G24,monster!A:C,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(G24,monster!A:D,4,0),"")</f>
         <v>地宫洞穴人</v>
       </c>
       <c r="I24" s="25" t="str" cm="1">
@@ -4811,46 +5373,125 @@
         <v>正前</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K24" s="33" t="str">
         <f>L24+0&amp;","&amp;M24+0</f>
         <v>14,-1</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="48">
         <v>14</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="48">
         <v>-1</v>
       </c>
       <c r="N24" s="13">
+        <v>4</v>
+      </c>
+      <c r="O24" s="33" t="str">
+        <f>IF(P24&lt;&gt;"", P24+0&amp;","&amp;Q24+0,"")</f>
+        <v>2,3</v>
+      </c>
+      <c r="P24" s="48">
         <v>2</v>
       </c>
-      <c r="O24" s="13">
-        <v>0</v>
-      </c>
-      <c r="P24" s="13">
+      <c r="Q24" s="48">
+        <v>3</v>
+      </c>
+      <c r="R24" s="13">
+        <v>0</v>
+      </c>
+      <c r="S24" s="13">
         <v>11</v>
       </c>
-      <c r="Q24" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="R24" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="S24" s="13">
-        <v>0</v>
-      </c>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T24" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="U24" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="V24" s="13">
+        <v>0</v>
+      </c>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13" t="str" cm="1">
+        <f t="array" ref="B25">C25&amp;_xlfn.TEXTJOIN("",1,TEXT(D25:F25,"00"))</f>
+        <v>3020001</v>
+      </c>
+      <c r="C25" s="32">
+        <v>3</v>
+      </c>
+      <c r="D25" s="32">
+        <v>2</v>
+      </c>
+      <c r="E25" s="32">
+        <v>0</v>
+      </c>
+      <c r="F25" s="32">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13">
+        <v>201104</v>
+      </c>
+      <c r="H25" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G25,monster!A:D,4,0),"")</f>
+        <v>地宫洞穴人</v>
+      </c>
+      <c r="I25" s="25" t="str" cm="1">
+        <f t="array" ref="I25">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L25,M25))*6/PI(),
+_xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
+IFERROR(_xlpm.output,""))</f>
+        <v>正前</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="33" t="str">
+        <f>L25+0&amp;","&amp;M25+0</f>
+        <v>14,-1</v>
+      </c>
+      <c r="L25" s="48">
+        <v>14</v>
+      </c>
+      <c r="M25" s="48">
+        <v>-1</v>
+      </c>
+      <c r="N25" s="26"/>
+      <c r="O25" s="33" t="str">
+        <f t="shared" ref="O25:O59" si="2">IF(P25&lt;&gt;"", P25+0&amp;","&amp;Q25+0,"")</f>
+        <v/>
+      </c>
+      <c r="R25" s="13">
+        <v>0</v>
+      </c>
+      <c r="S25" s="13">
+        <v>11</v>
+      </c>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="13">
+        <v>0</v>
+      </c>
+      <c r="W25" s="13">
+        <v>1</v>
+      </c>
+      <c r="X25" s="13">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>1</v>
       </c>
       <c r="B26" s="13" t="str" cm="1">
         <f t="array" ref="B26">C26&amp;_xlfn.TEXTJOIN("",1,TEXT(D26:F26,"00"))</f>
-        <v>3020001</v>
+        <v>3020002</v>
       </c>
       <c r="C26" s="32">
         <v>3</v>
@@ -4862,151 +5503,177 @@
         <v>0</v>
       </c>
       <c r="F26" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="13">
         <v>201104</v>
       </c>
       <c r="H26" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G26,monster!A:C,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(G26,monster!A:D,4,0),"")</f>
         <v>地宫洞穴人</v>
       </c>
       <c r="I26" s="25" t="str" cm="1">
         <f t="array" ref="I26">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L26,M26))*6/PI(),
 _xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
 IFERROR(_xlpm.output,""))</f>
-        <v>正前</v>
+        <v>正后</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K26" s="33" t="str">
-        <f>L26+0&amp;","&amp;M26+0</f>
-        <v>14,-1</v>
-      </c>
-      <c r="L26" s="32">
-        <v>14</v>
-      </c>
-      <c r="M26" s="32">
+        <f t="shared" ref="K26" si="3">L26+0&amp;","&amp;M26+0</f>
+        <v>-14,-1</v>
+      </c>
+      <c r="L26" s="48">
+        <v>-14</v>
+      </c>
+      <c r="M26" s="48">
         <v>-1</v>
       </c>
       <c r="N26" s="26"/>
-      <c r="O26" s="13">
-        <v>0</v>
-      </c>
-      <c r="P26" s="13">
+      <c r="O26" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R26" s="13">
+        <v>0</v>
+      </c>
+      <c r="S26" s="13">
         <v>11</v>
       </c>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="13">
-        <v>0</v>
-      </c>
-      <c r="T26" s="13">
-        <v>1</v>
-      </c>
-      <c r="U26" s="13">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
-        <v>1</v>
-      </c>
-      <c r="B27" s="13" t="str" cm="1">
-        <f t="array" ref="B27">C27&amp;_xlfn.TEXTJOIN("",1,TEXT(D27:F27,"00"))</f>
-        <v>3020002</v>
-      </c>
-      <c r="C27" s="32">
-        <v>3</v>
-      </c>
-      <c r="D27" s="32">
-        <v>2</v>
-      </c>
-      <c r="E27" s="32">
-        <v>0</v>
-      </c>
-      <c r="F27" s="32">
-        <v>2</v>
-      </c>
-      <c r="G27" s="13">
-        <v>201104</v>
-      </c>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="13">
+        <v>0</v>
+      </c>
+      <c r="W26" s="13">
+        <v>1</v>
+      </c>
+      <c r="X26" s="13">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H27" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G27,monster!A:C,3,0),"")</f>
-        <v>地宫洞穴人</v>
+        <f>IFERROR(VLOOKUP(G27,monster!A:D,4,0),"")</f>
+        <v/>
       </c>
       <c r="I27" s="25" t="str" cm="1">
         <f t="array" ref="I27">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L27,M27))*6/PI(),
 _xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
 IFERROR(_xlpm.output,""))</f>
-        <v>正后</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="33" t="str">
-        <f t="shared" ref="K27" si="1">L27+0&amp;","&amp;M27+0</f>
-        <v>-14,-1</v>
-      </c>
-      <c r="L27" s="32">
-        <v>-14</v>
-      </c>
-      <c r="M27" s="32">
+        <v/>
+      </c>
+      <c r="K27" s="33"/>
+      <c r="O27" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>9</v>
+      </c>
+      <c r="B28" s="13" t="str" cm="1">
+        <f t="array" ref="B28">C28&amp;_xlfn.TEXTJOIN("",1,TEXT(D28:F28,"00"))</f>
+        <v>4010000</v>
+      </c>
+      <c r="C28" s="32">
+        <v>4</v>
+      </c>
+      <c r="D28" s="32">
+        <v>1</v>
+      </c>
+      <c r="E28" s="32">
+        <v>0</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
+        <v>201107</v>
+      </c>
+      <c r="H28" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G28,monster!A:D,4,0),"")</f>
+        <v>洞穴人流浪者</v>
+      </c>
+      <c r="I28" s="25" t="str" cm="1">
+        <f t="array" ref="I28">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L28,M28))*6/PI(),
+_xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
+IFERROR(_xlpm.output,""))</f>
+        <v>正前</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="33" t="str">
+        <f>L28+0&amp;","&amp;M28+0</f>
+        <v>14,-1</v>
+      </c>
+      <c r="L28" s="48">
+        <v>14</v>
+      </c>
+      <c r="M28" s="48">
         <v>-1</v>
       </c>
-      <c r="N27" s="26"/>
-      <c r="O27" s="13">
-        <v>0</v>
-      </c>
-      <c r="P27" s="13">
+      <c r="N28" s="13">
+        <v>7</v>
+      </c>
+      <c r="O28" s="33" t="str">
+        <f>IF(P28&lt;&gt;"", P28+0&amp;","&amp;Q28+0,"")</f>
+        <v>2,3</v>
+      </c>
+      <c r="P28" s="48">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="48">
+        <v>3</v>
+      </c>
+      <c r="R28" s="13">
+        <v>0</v>
+      </c>
+      <c r="S28" s="13">
         <v>11</v>
       </c>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="13">
-        <v>0</v>
-      </c>
-      <c r="T27" s="13">
-        <v>1</v>
-      </c>
-      <c r="U27" s="13">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H28" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G28,monster!A:C,3,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T28" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="U28" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="V28" s="13">
+        <v>0</v>
+      </c>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B29" s="13" t="str" cm="1">
         <f t="array" ref="B29">C29&amp;_xlfn.TEXTJOIN("",1,TEXT(D29:F29,"00"))</f>
-        <v>4010001</v>
+        <v>4020001</v>
       </c>
       <c r="C29" s="32">
         <v>4</v>
       </c>
       <c r="D29" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="32">
-        <f t="shared" ref="E29" si="2">O29</f>
         <v>0</v>
       </c>
       <c r="F29" s="32">
         <v>1</v>
       </c>
       <c r="G29" s="13">
-        <v>201105</v>
+        <v>201107</v>
       </c>
       <c r="H29" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G29,monster!A:C,3,0),"")</f>
-        <v>地宫跳虫骑手</v>
+        <f>IFERROR(VLOOKUP(G29,monster!A:D,4,0),"")</f>
+        <v>洞穴人流浪者</v>
       </c>
       <c r="I29" s="25" t="str" cm="1">
         <f t="array" ref="I29">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L29,M29))*6/PI(),
@@ -5015,357 +5682,531 @@
         <v>正前</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K29" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>L29+0&amp;","&amp;M29+0</f>
         <v>14,-1</v>
       </c>
-      <c r="L29" s="32">
+      <c r="L29" s="48">
         <v>14</v>
       </c>
-      <c r="M29" s="32">
+      <c r="M29" s="48">
         <v>-1</v>
       </c>
-      <c r="N29" s="13">
-        <v>2</v>
-      </c>
-      <c r="O29" s="13">
-        <v>0</v>
-      </c>
-      <c r="P29" s="13">
+      <c r="N29" s="26"/>
+      <c r="O29" s="33" t="str">
+        <f t="shared" ref="O29:O31" si="4">IF(P29&lt;&gt;"", P29+0&amp;","&amp;Q29+0,"")</f>
+        <v/>
+      </c>
+      <c r="R29" s="13">
+        <v>0</v>
+      </c>
+      <c r="S29" s="13">
         <v>11</v>
-      </c>
-      <c r="Q29" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="R29" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="S29" s="13">
-        <v>0</v>
       </c>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="13">
+        <v>0</v>
+      </c>
+      <c r="W29" s="13">
+        <v>2</v>
+      </c>
+      <c r="X29" s="13">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>9</v>
+      </c>
+      <c r="B30" s="13" t="str" cm="1">
+        <f t="array" ref="B30">C30&amp;_xlfn.TEXTJOIN("",1,TEXT(D30:F30,"00"))</f>
+        <v>4020002</v>
+      </c>
+      <c r="C30" s="32">
+        <v>4</v>
+      </c>
+      <c r="D30" s="32">
+        <v>2</v>
+      </c>
+      <c r="E30" s="32">
+        <v>0</v>
+      </c>
+      <c r="F30" s="32">
+        <v>2</v>
+      </c>
+      <c r="G30" s="13">
+        <v>201107</v>
+      </c>
       <c r="H30" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G30,monster!A:C,3,0),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP(G30,monster!A:D,4,0),"")</f>
+        <v>洞穴人流浪者</v>
       </c>
       <c r="I30" s="25" t="str" cm="1">
         <f t="array" ref="I30">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L30,M30))*6/PI(),
 _xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
 IFERROR(_xlpm.output,""))</f>
-        <v/>
-      </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="33"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
-        <v>3</v>
-      </c>
-      <c r="B31" s="13" t="str" cm="1">
-        <f t="array" ref="B31">C31&amp;_xlfn.TEXTJOIN("",1,TEXT(D31:F31,"00"))</f>
-        <v>9010000</v>
-      </c>
-      <c r="C31" s="32">
-        <v>9</v>
-      </c>
-      <c r="D31" s="32">
-        <v>1</v>
-      </c>
-      <c r="E31" s="32">
-        <v>0</v>
-      </c>
-      <c r="F31" s="32">
-        <v>0</v>
-      </c>
-      <c r="G31" s="13">
-        <v>211101</v>
-      </c>
+        <v>正后</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="33" t="str">
+        <f t="shared" ref="K30" si="5">L30+0&amp;","&amp;M30+0</f>
+        <v>-14,-1</v>
+      </c>
+      <c r="L30" s="48">
+        <v>-14</v>
+      </c>
+      <c r="M30" s="48">
+        <v>-1</v>
+      </c>
+      <c r="N30" s="26"/>
+      <c r="O30" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R30" s="13">
+        <v>0</v>
+      </c>
+      <c r="S30" s="13">
+        <v>11</v>
+      </c>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="13">
+        <v>0</v>
+      </c>
+      <c r="W30" s="13">
+        <v>2</v>
+      </c>
+      <c r="X30" s="13">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H31" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G31,monster!A:C,3,0),"")</f>
-        <v>地宫捕奴车</v>
+        <f>IFERROR(VLOOKUP(G31,monster!A:D,4,0),"")</f>
+        <v/>
       </c>
       <c r="I31" s="25" t="str" cm="1">
         <f t="array" ref="I31">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L31,M31))*6/PI(),
 _xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
 IFERROR(_xlpm.output,""))</f>
-        <v>正后</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="K31" s="33" t="str">
-        <f>L31+0&amp;","&amp;M31+0</f>
-        <v>-14,-1</v>
-      </c>
-      <c r="L31" s="32">
-        <v>-14</v>
-      </c>
-      <c r="M31" s="32">
+        <v/>
+      </c>
+      <c r="K31" s="33"/>
+      <c r="O31" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>1</v>
+      </c>
+      <c r="B32" s="13" t="str" cm="1">
+        <f t="array" ref="B32">C32&amp;_xlfn.TEXTJOIN("",1,TEXT(D32:F32,"00"))</f>
+        <v>5010000</v>
+      </c>
+      <c r="C32" s="32">
+        <v>5</v>
+      </c>
+      <c r="D32" s="32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
+        <v>201108</v>
+      </c>
+      <c r="H32" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G32,monster!A:D,4,0),"")</f>
+        <v>洞穴人纵火者</v>
+      </c>
+      <c r="I32" s="25" t="str" cm="1">
+        <f t="array" ref="I32">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L32,M32))*6/PI(),
+_xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
+IFERROR(_xlpm.output,""))</f>
+        <v>正前</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="33" t="str">
+        <f>L32+0&amp;","&amp;M32+0</f>
+        <v>14,-1</v>
+      </c>
+      <c r="L32" s="48">
+        <v>14</v>
+      </c>
+      <c r="M32" s="48">
         <v>-1</v>
       </c>
-      <c r="N31" s="13">
-        <v>1</v>
-      </c>
-      <c r="O31" s="13">
-        <v>0</v>
-      </c>
-      <c r="P31" s="13">
+      <c r="N32" s="13">
+        <v>7</v>
+      </c>
+      <c r="O32" s="33" t="str">
+        <f>IF(P32&lt;&gt;"", P32+0&amp;","&amp;Q32+0,"")</f>
+        <v>2,3</v>
+      </c>
+      <c r="P32" s="48">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="48">
+        <v>3</v>
+      </c>
+      <c r="R32" s="13">
+        <v>0</v>
+      </c>
+      <c r="S32" s="13">
         <v>11</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="T32" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="U32" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="V32" s="13">
+        <v>0</v>
+      </c>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
+        <v>1</v>
+      </c>
+      <c r="B33" s="13" t="str" cm="1">
+        <f t="array" ref="B33">C33&amp;_xlfn.TEXTJOIN("",1,TEXT(D33:F33,"00"))</f>
+        <v>5020001</v>
+      </c>
+      <c r="C33" s="32">
         <v>5</v>
       </c>
-      <c r="R31" s="26"/>
-      <c r="S31" s="13">
-        <v>0</v>
-      </c>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="J32" s="22"/>
-      <c r="K32" s="33"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
-        <v>99</v>
-      </c>
-      <c r="B33" s="13">
-        <v>99201</v>
+      <c r="D33" s="32">
+        <v>2</v>
+      </c>
+      <c r="E33" s="32">
+        <v>0</v>
+      </c>
+      <c r="F33" s="32">
+        <v>1</v>
       </c>
       <c r="G33" s="13">
-        <v>201103</v>
+        <v>201108</v>
       </c>
       <c r="H33" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G33,monster!A:C,3,0),"")</f>
-        <v>地宫跳虫</v>
+        <f>IFERROR(VLOOKUP(G33,monster!A:D,4,0),"")</f>
+        <v>洞穴人纵火者</v>
       </c>
       <c r="I33" s="25" t="str" cm="1">
         <f t="array" ref="I33">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L33,M33))*6/PI(),
 _xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
 IFERROR(_xlpm.output,""))</f>
-        <v>正后</v>
+        <v>正前</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="33" t="str">
-        <f t="shared" ref="K33:K34" si="3">L33+0&amp;","&amp;M33+0</f>
-        <v>-14,-1</v>
-      </c>
-      <c r="L33" s="32">
-        <v>-14</v>
-      </c>
-      <c r="M33" s="32">
+        <f>L33+0&amp;","&amp;M33+0</f>
+        <v>14,-1</v>
+      </c>
+      <c r="L33" s="48">
+        <v>14</v>
+      </c>
+      <c r="M33" s="48">
         <v>-1</v>
       </c>
-      <c r="N33" s="13">
-        <v>0</v>
-      </c>
-      <c r="O33" s="13">
-        <v>0</v>
-      </c>
-      <c r="P33" s="13">
+      <c r="N33" s="26"/>
+      <c r="O33" s="33" t="str">
+        <f t="shared" ref="O33:O35" si="6">IF(P33&lt;&gt;"", P33+0&amp;","&amp;Q33+0,"")</f>
+        <v/>
+      </c>
+      <c r="R33" s="13">
+        <v>0</v>
+      </c>
+      <c r="S33" s="13">
         <v>11</v>
-      </c>
-      <c r="Q33" s="13">
-        <v>0</v>
-      </c>
-      <c r="R33" s="13">
-        <v>400</v>
-      </c>
-      <c r="S33" s="13">
-        <v>0</v>
       </c>
       <c r="T33" s="26"/>
       <c r="U33" s="26"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="13">
+        <v>0</v>
+      </c>
+      <c r="W33" s="13">
+        <v>2</v>
+      </c>
+      <c r="X33" s="13">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
-        <v>99</v>
-      </c>
-      <c r="B34" s="13">
-        <v>99202</v>
+        <v>1</v>
+      </c>
+      <c r="B34" s="13" t="str" cm="1">
+        <f t="array" ref="B34">C34&amp;_xlfn.TEXTJOIN("",1,TEXT(D34:F34,"00"))</f>
+        <v>5020002</v>
+      </c>
+      <c r="C34" s="32">
+        <v>5</v>
+      </c>
+      <c r="D34" s="32">
+        <v>2</v>
+      </c>
+      <c r="E34" s="32">
+        <v>0</v>
+      </c>
+      <c r="F34" s="32">
+        <v>2</v>
       </c>
       <c r="G34" s="13">
-        <v>201103</v>
+        <v>201108</v>
       </c>
       <c r="H34" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G34,monster!A:C,3,0),"")</f>
-        <v>地宫跳虫</v>
+        <f>IFERROR(VLOOKUP(G34,monster!A:D,4,0),"")</f>
+        <v>洞穴人纵火者</v>
       </c>
       <c r="I34" s="25" t="str" cm="1">
         <f t="array" ref="I34">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L34,M34))*6/PI(),
 _xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
 IFERROR(_xlpm.output,""))</f>
-        <v>正前</v>
+        <v>正后</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K34" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>14,-1</v>
-      </c>
-      <c r="L34" s="32">
-        <v>14</v>
-      </c>
-      <c r="M34" s="32">
+        <f t="shared" ref="K34" si="7">L34+0&amp;","&amp;M34+0</f>
+        <v>-14,-1</v>
+      </c>
+      <c r="L34" s="48">
+        <v>-14</v>
+      </c>
+      <c r="M34" s="48">
         <v>-1</v>
       </c>
-      <c r="N34" s="13">
-        <v>1</v>
-      </c>
-      <c r="O34" s="13">
-        <v>0</v>
-      </c>
-      <c r="P34" s="13">
+      <c r="N34" s="26"/>
+      <c r="O34" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R34" s="13">
+        <v>0</v>
+      </c>
+      <c r="S34" s="13">
         <v>11</v>
-      </c>
-      <c r="Q34" s="13">
-        <v>0</v>
-      </c>
-      <c r="R34" s="13">
-        <v>400</v>
-      </c>
-      <c r="S34" s="13">
-        <v>0</v>
       </c>
       <c r="T34" s="26"/>
       <c r="U34" s="26"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
-        <v>99</v>
-      </c>
-      <c r="B35" s="13">
-        <v>99203</v>
-      </c>
-      <c r="G35" s="13">
-        <v>201103</v>
-      </c>
+      <c r="V34" s="13">
+        <v>0</v>
+      </c>
+      <c r="W34" s="13">
+        <v>2</v>
+      </c>
+      <c r="X34" s="13">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H35" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G35,monster!A:C,3,0),"")</f>
-        <v>地宫跳虫</v>
+        <f>IFERROR(VLOOKUP(G35,monster!A:D,4,0),"")</f>
+        <v/>
       </c>
       <c r="I35" s="25" t="str" cm="1">
         <f t="array" ref="I35">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L35,M35))*6/PI(),
 _xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
 IFERROR(_xlpm.output,""))</f>
-        <v>顶部</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="K35" s="33" t="str">
-        <f t="shared" ref="K35" si="4">L35+0&amp;","&amp;M35+0</f>
-        <v>3,12</v>
-      </c>
-      <c r="L35" s="32">
-        <v>3</v>
-      </c>
-      <c r="M35" s="32">
-        <v>12</v>
-      </c>
-      <c r="N35" s="13">
-        <v>1</v>
-      </c>
-      <c r="O35" s="13">
-        <v>0</v>
-      </c>
-      <c r="P35" s="13">
-        <v>11</v>
-      </c>
-      <c r="Q35" s="13">
-        <v>0</v>
-      </c>
-      <c r="R35" s="13">
-        <v>400</v>
-      </c>
-      <c r="S35" s="13">
-        <v>0</v>
-      </c>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="K35" s="33"/>
+      <c r="O35" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
-        <v>99</v>
-      </c>
-      <c r="B36" s="13">
-        <v>99204</v>
+        <v>1</v>
+      </c>
+      <c r="B36" s="13" t="str" cm="1">
+        <f t="array" ref="B36">C36&amp;_xlfn.TEXTJOIN("",1,TEXT(D36:F36,"00"))</f>
+        <v>6010000</v>
+      </c>
+      <c r="C36" s="32">
+        <v>6</v>
+      </c>
+      <c r="D36" s="32">
+        <v>1</v>
+      </c>
+      <c r="E36" s="32">
+        <v>0</v>
+      </c>
+      <c r="F36" s="32">
+        <v>0</v>
       </c>
       <c r="G36" s="13">
-        <v>201103</v>
+        <v>201109</v>
       </c>
       <c r="H36" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G36,monster!A:C,3,0),"")</f>
-        <v>地宫跳虫</v>
+        <f>IFERROR(VLOOKUP(G36,monster!A:D,4,0),"")</f>
+        <v>洞穴人暴徒</v>
       </c>
       <c r="I36" s="25" t="str" cm="1">
         <f t="array" ref="I36">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L36,M36))*6/PI(),
 _xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
 IFERROR(_xlpm.output,""))</f>
-        <v>顶部</v>
+        <v>正前</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K36" s="33" t="str">
-        <f t="shared" ref="K36" si="5">L36+0&amp;","&amp;M36+0</f>
-        <v>-3,12</v>
-      </c>
-      <c r="L36" s="32">
-        <v>-3</v>
-      </c>
-      <c r="M36" s="32">
-        <v>12</v>
+        <f>L36+0&amp;","&amp;M36+0</f>
+        <v>14,-1</v>
+      </c>
+      <c r="L36" s="48">
+        <v>14</v>
+      </c>
+      <c r="M36" s="48">
+        <v>-1</v>
       </c>
       <c r="N36" s="13">
-        <v>1</v>
-      </c>
-      <c r="O36" s="13">
-        <v>0</v>
-      </c>
-      <c r="P36" s="13">
+        <v>7</v>
+      </c>
+      <c r="O36" s="33" t="str">
+        <f>IF(P36&lt;&gt;"", P36+0&amp;","&amp;Q36+0,"")</f>
+        <v>2,3</v>
+      </c>
+      <c r="P36" s="48">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="48">
+        <v>3</v>
+      </c>
+      <c r="R36" s="13">
+        <v>0</v>
+      </c>
+      <c r="S36" s="13">
         <v>11</v>
       </c>
-      <c r="Q36" s="13">
-        <v>0</v>
-      </c>
-      <c r="R36" s="13">
-        <v>400</v>
-      </c>
-      <c r="S36" s="13">
-        <v>0</v>
-      </c>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T36" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="U36" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="V36" s="13">
+        <v>0</v>
+      </c>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
+        <v>1</v>
+      </c>
+      <c r="B37" s="13" t="str" cm="1">
+        <f t="array" ref="B37">C37&amp;_xlfn.TEXTJOIN("",1,TEXT(D37:F37,"00"))</f>
+        <v>6020001</v>
+      </c>
+      <c r="C37" s="32">
+        <v>6</v>
+      </c>
+      <c r="D37" s="32">
+        <v>2</v>
+      </c>
+      <c r="E37" s="32">
+        <v>0</v>
+      </c>
+      <c r="F37" s="32">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13">
+        <v>201109</v>
+      </c>
       <c r="H37" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G37,monster!A:C,3,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP(G37,monster!A:D,4,0),"")</f>
+        <v>洞穴人暴徒</v>
+      </c>
+      <c r="I37" s="25" t="str" cm="1">
+        <f t="array" ref="I37">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L37,M37))*6/PI(),
+_xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
+IFERROR(_xlpm.output,""))</f>
+        <v>正前</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="33" t="str">
+        <f>L37+0&amp;","&amp;M37+0</f>
+        <v>14,-1</v>
+      </c>
+      <c r="L37" s="48">
+        <v>14</v>
+      </c>
+      <c r="M37" s="48">
+        <v>-1</v>
+      </c>
+      <c r="N37" s="26"/>
+      <c r="O37" s="33" t="str">
+        <f t="shared" ref="O37:O38" si="8">IF(P37&lt;&gt;"", P37+0&amp;","&amp;Q37+0,"")</f>
+        <v/>
+      </c>
+      <c r="R37" s="13">
+        <v>0</v>
+      </c>
+      <c r="S37" s="13">
+        <v>11</v>
+      </c>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="13">
+        <v>0</v>
+      </c>
+      <c r="W37" s="13">
+        <v>2</v>
+      </c>
+      <c r="X37" s="13">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
-        <v>99</v>
-      </c>
-      <c r="B38" s="13">
-        <v>99001</v>
+        <v>1</v>
+      </c>
+      <c r="B38" s="13" t="str" cm="1">
+        <f t="array" ref="B38">C38&amp;_xlfn.TEXTJOIN("",1,TEXT(D38:F38,"00"))</f>
+        <v>6020002</v>
+      </c>
+      <c r="C38" s="32">
+        <v>6</v>
+      </c>
+      <c r="D38" s="32">
+        <v>2</v>
+      </c>
+      <c r="E38" s="32">
+        <v>0</v>
+      </c>
+      <c r="F38" s="32">
+        <v>2</v>
       </c>
       <c r="G38" s="13">
-        <v>201104</v>
+        <v>201109</v>
       </c>
       <c r="H38" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G38,monster!A:C,3,0),"")</f>
-        <v>地宫洞穴人</v>
+        <f>IFERROR(VLOOKUP(G38,monster!A:D,4,0),"")</f>
+        <v>洞穴人暴徒</v>
       </c>
       <c r="I38" s="25" t="str" cm="1">
         <f t="array" ref="I38">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L38,M38))*6/PI(),
@@ -5374,470 +6215,1005 @@
         <v>正后</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K38" s="33" t="str">
-        <f t="shared" ref="K38:K41" si="6">L38+0&amp;","&amp;M38+0</f>
+        <f t="shared" ref="K38" si="9">L38+0&amp;","&amp;M38+0</f>
         <v>-14,-1</v>
       </c>
-      <c r="L38" s="32">
+      <c r="L38" s="48">
         <v>-14</v>
       </c>
-      <c r="M38" s="32">
+      <c r="M38" s="48">
         <v>-1</v>
       </c>
-      <c r="N38" s="13">
-        <v>0</v>
-      </c>
-      <c r="O38" s="13">
-        <v>0</v>
-      </c>
-      <c r="P38" s="13">
+      <c r="N38" s="26"/>
+      <c r="O38" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="R38" s="13">
+        <v>0</v>
+      </c>
+      <c r="S38" s="13">
         <v>11</v>
-      </c>
-      <c r="Q38" s="13">
-        <v>0</v>
-      </c>
-      <c r="R38" s="13">
-        <v>400</v>
-      </c>
-      <c r="S38" s="13">
-        <v>0</v>
       </c>
       <c r="T38" s="26"/>
       <c r="U38" s="26"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
-        <v>99</v>
-      </c>
-      <c r="B39" s="13">
-        <v>99002</v>
-      </c>
-      <c r="G39" s="13">
-        <v>201104</v>
-      </c>
+      <c r="V38" s="13">
+        <v>0</v>
+      </c>
+      <c r="W38" s="13">
+        <v>2</v>
+      </c>
+      <c r="X38" s="13">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H39" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G39,monster!A:C,3,0),"")</f>
-        <v>地宫洞穴人</v>
-      </c>
-      <c r="I39" s="25" t="str" cm="1">
-        <f t="array" ref="I39">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L39,M39))*6/PI(),
-_xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
-IFERROR(_xlpm.output,""))</f>
-        <v>正前</v>
-      </c>
-      <c r="J39" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="K39" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>14,-1</v>
-      </c>
-      <c r="L39" s="32">
-        <v>14</v>
-      </c>
-      <c r="M39" s="32">
-        <v>-1</v>
-      </c>
-      <c r="N39" s="13">
-        <v>1</v>
-      </c>
-      <c r="O39" s="13">
-        <v>0</v>
-      </c>
-      <c r="P39" s="13">
-        <v>11</v>
-      </c>
-      <c r="Q39" s="13">
-        <v>0</v>
-      </c>
-      <c r="R39" s="13">
-        <v>400</v>
-      </c>
-      <c r="S39" s="13">
-        <v>0</v>
-      </c>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP(G39,monster!A:D,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="O39" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
-        <v>99</v>
-      </c>
-      <c r="B40" s="13">
-        <v>99003</v>
+        <v>9</v>
+      </c>
+      <c r="B40" s="13" t="str" cm="1">
+        <f t="array" ref="B40">C40&amp;_xlfn.TEXTJOIN("",1,TEXT(D40:F40,"00"))</f>
+        <v>7010001</v>
+      </c>
+      <c r="C40" s="32">
+        <v>7</v>
+      </c>
+      <c r="D40" s="32">
+        <v>1</v>
+      </c>
+      <c r="E40" s="32">
+        <f t="shared" ref="E40" si="10">R40</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="32">
+        <v>1</v>
       </c>
       <c r="G40" s="13">
-        <v>201104</v>
+        <v>201105</v>
       </c>
       <c r="H40" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G40,monster!A:C,3,0),"")</f>
-        <v>地宫洞穴人</v>
+        <f>IFERROR(VLOOKUP(G40,monster!A:D,4,0),"")</f>
+        <v>跳虫骑手</v>
       </c>
       <c r="I40" s="25" t="str" cm="1">
         <f t="array" ref="I40">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L40,M40))*6/PI(),
 _xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
 IFERROR(_xlpm.output,""))</f>
-        <v>顶部</v>
+        <v>正前</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K40" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>4,12</v>
-      </c>
-      <c r="L40" s="32">
-        <v>4</v>
-      </c>
-      <c r="M40" s="32">
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>14,-1</v>
+      </c>
+      <c r="L40" s="48">
+        <v>14</v>
+      </c>
+      <c r="M40" s="48">
+        <v>-1</v>
       </c>
       <c r="N40" s="13">
-        <v>1</v>
-      </c>
-      <c r="O40" s="13">
-        <v>0</v>
-      </c>
-      <c r="P40" s="13">
+        <v>2</v>
+      </c>
+      <c r="O40" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R40" s="13">
+        <v>0</v>
+      </c>
+      <c r="S40" s="13">
         <v>11</v>
       </c>
-      <c r="Q40" s="13">
-        <v>0</v>
-      </c>
-      <c r="R40" s="13">
-        <v>400</v>
-      </c>
-      <c r="S40" s="13">
-        <v>0</v>
-      </c>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
-        <v>99</v>
-      </c>
-      <c r="B41" s="13">
-        <v>99004</v>
-      </c>
-      <c r="G41" s="13">
-        <v>201104</v>
-      </c>
+      <c r="T40" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="U40" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="V40" s="13">
+        <v>0</v>
+      </c>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H41" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G41,monster!A:C,3,0),"")</f>
-        <v>地宫洞穴人</v>
+        <f>IFERROR(VLOOKUP(G41,monster!A:D,4,0),"")</f>
+        <v/>
       </c>
       <c r="I41" s="25" t="str" cm="1">
         <f t="array" ref="I41">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L41,M41))*6/PI(),
 _xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
 IFERROR(_xlpm.output,""))</f>
-        <v>顶部</v>
-      </c>
-      <c r="J41" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="K41" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>-4,12</v>
-      </c>
-      <c r="L41" s="32">
-        <v>-4</v>
-      </c>
-      <c r="M41" s="32">
-        <v>12</v>
-      </c>
-      <c r="N41" s="13">
-        <v>1</v>
-      </c>
-      <c r="O41" s="13">
-        <v>0</v>
-      </c>
-      <c r="P41" s="13">
-        <v>11</v>
-      </c>
-      <c r="Q41" s="13">
-        <v>0</v>
-      </c>
-      <c r="R41" s="13">
-        <v>400</v>
-      </c>
-      <c r="S41" s="13">
-        <v>0</v>
-      </c>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
-        <v>99</v>
-      </c>
-      <c r="B43" s="13">
-        <v>99101</v>
-      </c>
-      <c r="G43" s="13">
-        <v>201105</v>
-      </c>
-      <c r="H43" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G43,monster!A:C,3,0),"")</f>
-        <v>地宫跳虫骑手</v>
-      </c>
-      <c r="I43" s="25" t="str" cm="1">
-        <f t="array" ref="I43">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L43,M43))*6/PI(),
+        <v/>
+      </c>
+      <c r="J41" s="22"/>
+      <c r="K41" s="33"/>
+      <c r="O41" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42" s="13">
+        <v>9</v>
+      </c>
+      <c r="B42" s="13" t="str" cm="1">
+        <f t="array" ref="B42">C42&amp;_xlfn.TEXTJOIN("",1,TEXT(D42:F42,"00"))</f>
+        <v>9010000</v>
+      </c>
+      <c r="C42" s="32">
+        <v>9</v>
+      </c>
+      <c r="D42" s="32">
+        <v>1</v>
+      </c>
+      <c r="E42" s="32">
+        <v>0</v>
+      </c>
+      <c r="F42" s="32">
+        <v>0</v>
+      </c>
+      <c r="G42" s="13">
+        <v>211101</v>
+      </c>
+      <c r="H42" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G42,monster!A:D,4,0),"")</f>
+        <v>地宫捕奴车</v>
+      </c>
+      <c r="I42" s="25" t="str" cm="1">
+        <f t="array" ref="I42">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L42,M42))*6/PI(),
 _xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
 IFERROR(_xlpm.output,""))</f>
-        <v>正前</v>
-      </c>
-      <c r="J43" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="K43" s="33" t="str">
-        <f t="shared" ref="K43:K45" si="7">L43+0&amp;","&amp;M43+0</f>
-        <v>14,-1</v>
-      </c>
-      <c r="L43" s="32">
-        <v>14</v>
-      </c>
-      <c r="M43" s="32">
+        <v>正后</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="K42" s="33" t="str">
+        <f>L42+0&amp;","&amp;M42+0</f>
+        <v>-14,-1</v>
+      </c>
+      <c r="L42" s="48">
+        <v>-14</v>
+      </c>
+      <c r="M42" s="48">
         <v>-1</v>
       </c>
-      <c r="N43" s="13">
-        <v>1</v>
-      </c>
-      <c r="O43" s="13">
-        <v>0</v>
-      </c>
-      <c r="P43" s="13">
+      <c r="N42" s="13">
+        <v>1</v>
+      </c>
+      <c r="O42" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R42" s="13">
+        <v>0</v>
+      </c>
+      <c r="S42" s="13">
         <v>11</v>
       </c>
-      <c r="Q43" s="13">
-        <v>0</v>
-      </c>
-      <c r="R43" s="13">
-        <v>400</v>
-      </c>
-      <c r="S43" s="13">
-        <v>0</v>
-      </c>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="33">
-        <v>1</v>
+      <c r="T42" s="13">
+        <v>5</v>
+      </c>
+      <c r="U42" s="26"/>
+      <c r="V42" s="13">
+        <v>0</v>
+      </c>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="H43" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G43,monster!A:D,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="J43" s="22"/>
+      <c r="K43" s="33"/>
+      <c r="O43" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
+        <v>99</v>
       </c>
       <c r="B44" s="13">
-        <v>99103</v>
+        <v>99201</v>
       </c>
       <c r="G44" s="13">
-        <v>201105</v>
+        <v>201103</v>
       </c>
       <c r="H44" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G44,monster!A:C,3,0),"")</f>
-        <v>地宫跳虫骑手</v>
+        <f>IFERROR(VLOOKUP(G44,monster!A:D,4,0),"")</f>
+        <v>跳虫</v>
       </c>
       <c r="I44" s="25" t="str" cm="1">
         <f t="array" ref="I44">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L44,M44))*6/PI(),
 _xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
 IFERROR(_xlpm.output,""))</f>
-        <v>前上</v>
+        <v>正后</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K44" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>7,12</v>
-      </c>
-      <c r="L44" s="32">
-        <v>7</v>
-      </c>
-      <c r="M44" s="32">
-        <v>12</v>
+        <f t="shared" ref="K44:K45" si="11">L44+0&amp;","&amp;M44+0</f>
+        <v>-14,-1</v>
+      </c>
+      <c r="L44" s="48">
+        <v>-14</v>
+      </c>
+      <c r="M44" s="48">
+        <v>-1</v>
       </c>
       <c r="N44" s="13">
-        <v>1</v>
-      </c>
-      <c r="O44" s="13">
-        <v>0</v>
-      </c>
-      <c r="P44" s="13">
+        <v>0</v>
+      </c>
+      <c r="O44" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R44" s="13">
+        <v>0</v>
+      </c>
+      <c r="S44" s="13">
         <v>11</v>
       </c>
-      <c r="Q44" s="13">
-        <v>0</v>
-      </c>
-      <c r="R44" s="13">
+      <c r="T44" s="13">
+        <v>0</v>
+      </c>
+      <c r="U44" s="13">
         <v>400</v>
       </c>
-      <c r="S44" s="13">
-        <v>0</v>
-      </c>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" s="33">
-        <v>1</v>
+      <c r="V44" s="13">
+        <v>0</v>
+      </c>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A45" s="13">
+        <v>99</v>
       </c>
       <c r="B45" s="13">
-        <v>99104</v>
+        <v>99202</v>
       </c>
       <c r="G45" s="13">
-        <v>201105</v>
+        <v>201103</v>
       </c>
       <c r="H45" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G45,monster!A:C,3,0),"")</f>
-        <v>地宫跳虫骑手</v>
+        <f>IFERROR(VLOOKUP(G45,monster!A:D,4,0),"")</f>
+        <v>跳虫</v>
       </c>
       <c r="I45" s="25" t="str" cm="1">
         <f t="array" ref="I45">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L45,M45))*6/PI(),
 _xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
 IFERROR(_xlpm.output,""))</f>
-        <v>后上</v>
+        <v>正前</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K45" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>-7,12</v>
-      </c>
-      <c r="L45" s="32">
-        <v>-7</v>
-      </c>
-      <c r="M45" s="32">
+        <f t="shared" si="11"/>
+        <v>14,-1</v>
+      </c>
+      <c r="L45" s="48">
+        <v>14</v>
+      </c>
+      <c r="M45" s="48">
+        <v>-1</v>
+      </c>
+      <c r="N45" s="13">
+        <v>1</v>
+      </c>
+      <c r="O45" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R45" s="13">
+        <v>0</v>
+      </c>
+      <c r="S45" s="13">
+        <v>11</v>
+      </c>
+      <c r="T45" s="13">
+        <v>0</v>
+      </c>
+      <c r="U45" s="13">
+        <v>400</v>
+      </c>
+      <c r="V45" s="13">
+        <v>0</v>
+      </c>
+      <c r="W45" s="26"/>
+      <c r="X45" s="26"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46" s="13">
+        <v>99</v>
+      </c>
+      <c r="B46" s="13">
+        <v>99203</v>
+      </c>
+      <c r="G46" s="13">
+        <v>201103</v>
+      </c>
+      <c r="H46" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G46,monster!A:D,4,0),"")</f>
+        <v>跳虫</v>
+      </c>
+      <c r="I46" s="25" t="str" cm="1">
+        <f t="array" ref="I46">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L46,M46))*6/PI(),
+_xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
+IFERROR(_xlpm.output,""))</f>
+        <v>顶部</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="33" t="str">
+        <f t="shared" ref="K46" si="12">L46+0&amp;","&amp;M46+0</f>
+        <v>3,12</v>
+      </c>
+      <c r="L46" s="48">
+        <v>3</v>
+      </c>
+      <c r="M46" s="48">
         <v>12</v>
       </c>
-      <c r="N45" s="13">
-        <v>1</v>
-      </c>
-      <c r="O45" s="13">
-        <v>0</v>
-      </c>
-      <c r="P45" s="13">
+      <c r="N46" s="13">
+        <v>1</v>
+      </c>
+      <c r="O46" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R46" s="13">
+        <v>0</v>
+      </c>
+      <c r="S46" s="13">
         <v>11</v>
       </c>
-      <c r="Q45" s="13">
-        <v>0</v>
-      </c>
-      <c r="R45" s="13">
+      <c r="T46" s="13">
+        <v>0</v>
+      </c>
+      <c r="U46" s="13">
         <v>400</v>
       </c>
-      <c r="S45" s="13">
-        <v>0</v>
-      </c>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="33">
+      <c r="V46" s="13">
+        <v>0</v>
+      </c>
+      <c r="W46" s="26"/>
+      <c r="X46" s="26"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A47" s="13">
         <v>99</v>
       </c>
       <c r="B47" s="13">
-        <v>99301</v>
+        <v>99204</v>
       </c>
       <c r="G47" s="13">
-        <v>201106</v>
+        <v>201103</v>
       </c>
       <c r="H47" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G47,monster!A:C,3,0),"")</f>
-        <v>地宫蝙蝠骑手</v>
+        <f>IFERROR(VLOOKUP(G47,monster!A:D,4,0),"")</f>
+        <v>跳虫</v>
       </c>
       <c r="I47" s="25" t="str" cm="1">
         <f t="array" ref="I47">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L47,M47))*6/PI(),
 _xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
 IFERROR(_xlpm.output,""))</f>
+        <v>顶部</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="33" t="str">
+        <f t="shared" ref="K47" si="13">L47+0&amp;","&amp;M47+0</f>
+        <v>-3,12</v>
+      </c>
+      <c r="L47" s="48">
+        <v>-3</v>
+      </c>
+      <c r="M47" s="48">
+        <v>12</v>
+      </c>
+      <c r="N47" s="13">
+        <v>1</v>
+      </c>
+      <c r="O47" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R47" s="13">
+        <v>0</v>
+      </c>
+      <c r="S47" s="13">
+        <v>11</v>
+      </c>
+      <c r="T47" s="13">
+        <v>0</v>
+      </c>
+      <c r="U47" s="13">
+        <v>400</v>
+      </c>
+      <c r="V47" s="13">
+        <v>0</v>
+      </c>
+      <c r="W47" s="26"/>
+      <c r="X47" s="26"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="H48" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G48,monster!A:D,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="O48" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A49" s="13">
+        <v>99</v>
+      </c>
+      <c r="B49" s="13">
+        <v>99001</v>
+      </c>
+      <c r="G49" s="13">
+        <v>201104</v>
+      </c>
+      <c r="H49" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G49,monster!A:D,4,0),"")</f>
+        <v>地宫洞穴人</v>
+      </c>
+      <c r="I49" s="25" t="str" cm="1">
+        <f t="array" ref="I49">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L49,M49))*6/PI(),
+_xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
+IFERROR(_xlpm.output,""))</f>
+        <v>正后</v>
+      </c>
+      <c r="J49" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="33" t="str">
+        <f t="shared" ref="K49:K52" si="14">L49+0&amp;","&amp;M49+0</f>
+        <v>-14,-1</v>
+      </c>
+      <c r="L49" s="48">
+        <v>-14</v>
+      </c>
+      <c r="M49" s="48">
+        <v>-1</v>
+      </c>
+      <c r="N49" s="13">
+        <v>0</v>
+      </c>
+      <c r="O49" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R49" s="13">
+        <v>0</v>
+      </c>
+      <c r="S49" s="13">
+        <v>11</v>
+      </c>
+      <c r="T49" s="13">
+        <v>0</v>
+      </c>
+      <c r="U49" s="13">
+        <v>400</v>
+      </c>
+      <c r="V49" s="13">
+        <v>0</v>
+      </c>
+      <c r="W49" s="26"/>
+      <c r="X49" s="26"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
+        <v>99</v>
+      </c>
+      <c r="B50" s="13">
+        <v>99002</v>
+      </c>
+      <c r="G50" s="13">
+        <v>201104</v>
+      </c>
+      <c r="H50" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G50,monster!A:D,4,0),"")</f>
+        <v>地宫洞穴人</v>
+      </c>
+      <c r="I50" s="25" t="str" cm="1">
+        <f t="array" ref="I50">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L50,M50))*6/PI(),
+_xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
+IFERROR(_xlpm.output,""))</f>
+        <v>正前</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="33" t="str">
+        <f t="shared" si="14"/>
+        <v>14,-1</v>
+      </c>
+      <c r="L50" s="48">
+        <v>14</v>
+      </c>
+      <c r="M50" s="48">
+        <v>-1</v>
+      </c>
+      <c r="N50" s="13">
+        <v>1</v>
+      </c>
+      <c r="O50" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R50" s="13">
+        <v>0</v>
+      </c>
+      <c r="S50" s="13">
+        <v>11</v>
+      </c>
+      <c r="T50" s="13">
+        <v>0</v>
+      </c>
+      <c r="U50" s="13">
+        <v>400</v>
+      </c>
+      <c r="V50" s="13">
+        <v>0</v>
+      </c>
+      <c r="W50" s="26"/>
+      <c r="X50" s="26"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
+        <v>99</v>
+      </c>
+      <c r="B51" s="13">
+        <v>99003</v>
+      </c>
+      <c r="G51" s="13">
+        <v>201104</v>
+      </c>
+      <c r="H51" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G51,monster!A:D,4,0),"")</f>
+        <v>地宫洞穴人</v>
+      </c>
+      <c r="I51" s="25" t="str" cm="1">
+        <f t="array" ref="I51">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L51,M51))*6/PI(),
+_xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
+IFERROR(_xlpm.output,""))</f>
+        <v>顶部</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="33" t="str">
+        <f t="shared" si="14"/>
+        <v>4,12</v>
+      </c>
+      <c r="L51" s="48">
+        <v>4</v>
+      </c>
+      <c r="M51" s="48">
+        <v>12</v>
+      </c>
+      <c r="N51" s="13">
+        <v>1</v>
+      </c>
+      <c r="O51" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R51" s="13">
+        <v>0</v>
+      </c>
+      <c r="S51" s="13">
+        <v>11</v>
+      </c>
+      <c r="T51" s="13">
+        <v>0</v>
+      </c>
+      <c r="U51" s="13">
+        <v>400</v>
+      </c>
+      <c r="V51" s="13">
+        <v>0</v>
+      </c>
+      <c r="W51" s="26"/>
+      <c r="X51" s="26"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A52" s="13">
+        <v>99</v>
+      </c>
+      <c r="B52" s="13">
+        <v>99004</v>
+      </c>
+      <c r="G52" s="13">
+        <v>201104</v>
+      </c>
+      <c r="H52" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G52,monster!A:D,4,0),"")</f>
+        <v>地宫洞穴人</v>
+      </c>
+      <c r="I52" s="25" t="str" cm="1">
+        <f t="array" ref="I52">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L52,M52))*6/PI(),
+_xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
+IFERROR(_xlpm.output,""))</f>
+        <v>顶部</v>
+      </c>
+      <c r="J52" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" s="33" t="str">
+        <f t="shared" si="14"/>
+        <v>-4,12</v>
+      </c>
+      <c r="L52" s="48">
+        <v>-4</v>
+      </c>
+      <c r="M52" s="48">
+        <v>12</v>
+      </c>
+      <c r="N52" s="13">
+        <v>1</v>
+      </c>
+      <c r="O52" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R52" s="13">
+        <v>0</v>
+      </c>
+      <c r="S52" s="13">
+        <v>11</v>
+      </c>
+      <c r="T52" s="13">
+        <v>0</v>
+      </c>
+      <c r="U52" s="13">
+        <v>400</v>
+      </c>
+      <c r="V52" s="13">
+        <v>0</v>
+      </c>
+      <c r="W52" s="26"/>
+      <c r="X52" s="26"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="H53" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G53,monster!A:D,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="O53" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A54" s="13">
+        <v>99</v>
+      </c>
+      <c r="B54" s="13">
+        <v>99101</v>
+      </c>
+      <c r="G54" s="13">
+        <v>201105</v>
+      </c>
+      <c r="H54" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G54,monster!A:D,4,0),"")</f>
+        <v>跳虫骑手</v>
+      </c>
+      <c r="I54" s="25" t="str" cm="1">
+        <f t="array" ref="I54">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L54,M54))*6/PI(),
+_xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
+IFERROR(_xlpm.output,""))</f>
+        <v>正前</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="33" t="str">
+        <f t="shared" ref="K54:K56" si="15">L54+0&amp;","&amp;M54+0</f>
+        <v>14,-1</v>
+      </c>
+      <c r="L54" s="48">
+        <v>14</v>
+      </c>
+      <c r="M54" s="48">
+        <v>-1</v>
+      </c>
+      <c r="N54" s="13">
+        <v>1</v>
+      </c>
+      <c r="O54" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R54" s="13">
+        <v>0</v>
+      </c>
+      <c r="S54" s="13">
+        <v>11</v>
+      </c>
+      <c r="T54" s="13">
+        <v>0</v>
+      </c>
+      <c r="U54" s="13">
+        <v>400</v>
+      </c>
+      <c r="V54" s="13">
+        <v>0</v>
+      </c>
+      <c r="W54" s="26"/>
+      <c r="X54" s="26"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A55" s="33">
+        <v>99</v>
+      </c>
+      <c r="B55" s="13">
+        <v>99103</v>
+      </c>
+      <c r="G55" s="13">
+        <v>201105</v>
+      </c>
+      <c r="H55" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G55,monster!A:D,4,0),"")</f>
+        <v>跳虫骑手</v>
+      </c>
+      <c r="I55" s="25" t="str" cm="1">
+        <f t="array" ref="I55">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L55,M55))*6/PI(),
+_xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
+IFERROR(_xlpm.output,""))</f>
         <v>前上</v>
       </c>
-      <c r="J47" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="K47" s="33" t="str">
-        <f t="shared" ref="K47:K48" si="8">L47+0&amp;","&amp;M47+0</f>
+      <c r="J55" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" s="33" t="str">
+        <f t="shared" si="15"/>
         <v>7,12</v>
       </c>
-      <c r="L47" s="32">
+      <c r="L55" s="48">
         <v>7</v>
       </c>
-      <c r="M47" s="32">
+      <c r="M55" s="48">
         <v>12</v>
       </c>
-      <c r="N47" s="13">
-        <v>1</v>
-      </c>
-      <c r="O47" s="13">
-        <v>0</v>
-      </c>
-      <c r="P47" s="13">
+      <c r="N55" s="13">
+        <v>1</v>
+      </c>
+      <c r="O55" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R55" s="13">
+        <v>0</v>
+      </c>
+      <c r="S55" s="13">
         <v>11</v>
       </c>
-      <c r="Q47" s="13">
-        <v>0</v>
-      </c>
-      <c r="R47" s="13">
+      <c r="T55" s="13">
+        <v>0</v>
+      </c>
+      <c r="U55" s="13">
         <v>400</v>
       </c>
-      <c r="S47" s="13">
-        <v>0</v>
-      </c>
-      <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="33">
+      <c r="V55" s="13">
+        <v>0</v>
+      </c>
+      <c r="W55" s="26"/>
+      <c r="X55" s="26"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A56" s="33">
         <v>99</v>
       </c>
-      <c r="B48" s="13">
-        <v>33302</v>
-      </c>
-      <c r="G48" s="13">
-        <v>201106</v>
-      </c>
-      <c r="H48" s="25" t="str">
-        <f>IFERROR(VLOOKUP(G48,monster!A:C,3,0),"")</f>
-        <v>地宫蝙蝠骑手</v>
-      </c>
-      <c r="I48" s="25" t="str" cm="1">
-        <f t="array" ref="I48">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L48,M48))*6/PI(),
+      <c r="B56" s="13">
+        <v>99104</v>
+      </c>
+      <c r="G56" s="13">
+        <v>201105</v>
+      </c>
+      <c r="H56" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G56,monster!A:D,4,0),"")</f>
+        <v>跳虫骑手</v>
+      </c>
+      <c r="I56" s="25" t="str" cm="1">
+        <f t="array" ref="I56">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L56,M56))*6/PI(),
 _xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
 IFERROR(_xlpm.output,""))</f>
         <v>后上</v>
       </c>
-      <c r="J48" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="K48" s="33" t="str">
-        <f t="shared" si="8"/>
+      <c r="J56" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K56" s="33" t="str">
+        <f t="shared" si="15"/>
         <v>-7,12</v>
       </c>
-      <c r="L48" s="32">
+      <c r="L56" s="48">
         <v>-7</v>
       </c>
-      <c r="M48" s="32">
+      <c r="M56" s="48">
         <v>12</v>
       </c>
-      <c r="N48" s="13">
-        <v>1</v>
-      </c>
-      <c r="O48" s="13">
-        <v>0</v>
-      </c>
-      <c r="P48" s="13">
+      <c r="N56" s="13">
+        <v>1</v>
+      </c>
+      <c r="O56" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R56" s="13">
+        <v>0</v>
+      </c>
+      <c r="S56" s="13">
         <v>11</v>
       </c>
-      <c r="Q48" s="13">
-        <v>0</v>
-      </c>
-      <c r="R48" s="13">
+      <c r="T56" s="13">
+        <v>0</v>
+      </c>
+      <c r="U56" s="13">
         <v>400</v>
       </c>
-      <c r="S48" s="13">
-        <v>0</v>
-      </c>
-      <c r="T48" s="26"/>
-      <c r="U48" s="26"/>
+      <c r="V56" s="13">
+        <v>0</v>
+      </c>
+      <c r="W56" s="26"/>
+      <c r="X56" s="26"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="H57" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G57,monster!A:D,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="O57" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A58" s="33">
+        <v>99</v>
+      </c>
+      <c r="B58" s="13">
+        <v>99301</v>
+      </c>
+      <c r="G58" s="13">
+        <v>201106</v>
+      </c>
+      <c r="H58" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G58,monster!A:D,4,0),"")</f>
+        <v>蝙蝠骑手</v>
+      </c>
+      <c r="I58" s="25" t="str" cm="1">
+        <f t="array" ref="I58">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L58,M58))*6/PI(),
+_xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
+IFERROR(_xlpm.output,""))</f>
+        <v>前上</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K58" s="33" t="str">
+        <f t="shared" ref="K58:K59" si="16">L58+0&amp;","&amp;M58+0</f>
+        <v>7,12</v>
+      </c>
+      <c r="L58" s="48">
+        <v>7</v>
+      </c>
+      <c r="M58" s="48">
+        <v>12</v>
+      </c>
+      <c r="N58" s="13">
+        <v>1</v>
+      </c>
+      <c r="O58" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R58" s="13">
+        <v>0</v>
+      </c>
+      <c r="S58" s="13">
+        <v>11</v>
+      </c>
+      <c r="T58" s="13">
+        <v>0</v>
+      </c>
+      <c r="U58" s="13">
+        <v>400</v>
+      </c>
+      <c r="V58" s="13">
+        <v>0</v>
+      </c>
+      <c r="W58" s="26"/>
+      <c r="X58" s="26"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A59" s="33">
+        <v>99</v>
+      </c>
+      <c r="B59" s="13">
+        <v>33302</v>
+      </c>
+      <c r="G59" s="13">
+        <v>201106</v>
+      </c>
+      <c r="H59" s="25" t="str">
+        <f>IFERROR(VLOOKUP(G59,monster!A:D,4,0),"")</f>
+        <v>蝙蝠骑手</v>
+      </c>
+      <c r="I59" s="25" t="str" cm="1">
+        <f t="array" ref="I59">_xlfn.LET(_xlpm.v6p,ABS(ATAN2(L59,M59))*6/PI(),
+_xlpm.output,_xlfn.IFS(_xlpm.v6p&lt;1,"正前",_xlpm.v6p&gt;5,"正后",_xlpm.v6p&gt;4,"后上",_xlpm.v6p&lt;2,"前上",TRUE,"顶部"),
+IFERROR(_xlpm.output,""))</f>
+        <v>后上</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K59" s="33" t="str">
+        <f t="shared" si="16"/>
+        <v>-7,12</v>
+      </c>
+      <c r="L59" s="48">
+        <v>-7</v>
+      </c>
+      <c r="M59" s="48">
+        <v>12</v>
+      </c>
+      <c r="N59" s="13">
+        <v>1</v>
+      </c>
+      <c r="O59" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R59" s="13">
+        <v>0</v>
+      </c>
+      <c r="S59" s="13">
+        <v>11</v>
+      </c>
+      <c r="T59" s="13">
+        <v>0</v>
+      </c>
+      <c r="U59" s="13">
+        <v>400</v>
+      </c>
+      <c r="V59" s="13">
+        <v>0</v>
+      </c>
+      <c r="W59" s="26"/>
+      <c r="X59" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -5851,10 +7227,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4B4CAE-7EA6-4371-A095-945131482552}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5862,67 +7238,296 @@
     <col min="1" max="16384" width="12.5" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="E1" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>66</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="47"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47" t="s">
+      <c r="D3" s="52"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="H5" s="49" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="47"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="52"/>
+      <c r="H6" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H7" s="38">
+        <v>6000</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H8" s="38">
+        <v>6001</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H10" s="38">
+        <v>6010</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H11" s="38">
+        <v>6011</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H12" s="38">
+        <v>6012</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H13" s="38">
+        <v>6013</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H14" s="38">
+        <v>6014</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H16" s="38">
+        <v>6020</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H17" s="38">
+        <v>6021</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H18" s="38">
+        <v>6022</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H19" s="38">
+        <v>6023</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H21" s="38">
+        <v>6030</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H22" s="38">
+        <v>6031</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H24" s="38">
+        <v>6050</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H25" s="38">
+        <v>6051</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H26" s="38">
+        <v>6052</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H27" s="38">
+        <v>6053</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H28" s="38">
+        <v>6054</v>
+      </c>
+      <c r="I28" s="38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H29" s="38">
+        <v>6055</v>
+      </c>
+      <c r="I29" s="38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H30" s="38">
+        <v>6056</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+    </row>
+    <row r="32" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H32" s="38">
+        <v>6070</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H33" s="38">
+        <v>6071</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H34" s="38">
+        <v>6072</v>
+      </c>
+      <c r="I34" s="38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H35" s="38">
+        <v>6073</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H36" s="38">
+        <v>6074</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5937,5 +7542,8 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>